--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_17_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_17_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2399242.130553531</v>
+        <v>2398493.407385762</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3224434.033585233</v>
+        <v>3224434.033585232</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.0292736546</v>
       </c>
     </row>
     <row r="9">
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-2.250999386887997e-12</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>-1.682565198279917e-12</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.250999386887997e-12</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>287.7973928349938</v>
       </c>
       <c r="C11" t="n">
-        <v>275.8087097926756</v>
+        <v>83.57768865877979</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>266.7900138372036</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>307.7039674950863</v>
       </c>
       <c r="G11" t="n">
-        <v>309.0889243177296</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>221.5719595762367</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>47.64455280502354</v>
@@ -1430,7 +1430,7 @@
         <v>231.303770075173</v>
       </c>
       <c r="W11" t="n">
-        <v>88.29937119746495</v>
+        <v>256.6038695531299</v>
       </c>
       <c r="X11" t="n">
         <v>275.9041277858765</v>
@@ -1452,13 +1452,13 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>64.66317324227005</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>118.157488696659</v>
       </c>
       <c r="G12" t="n">
         <v>127.1478426882115</v>
@@ -1467,7 +1467,7 @@
         <v>96.10512019544257</v>
       </c>
       <c r="I12" t="n">
-        <v>57.59770602445452</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1607,13 +1607,13 @@
         <v>287.7973928349938</v>
       </c>
       <c r="C14" t="n">
-        <v>275.8087097926756</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>142.0240733678831</v>
       </c>
       <c r="E14" t="n">
-        <v>288.5321514071092</v>
+        <v>288.5321514071091</v>
       </c>
       <c r="F14" t="n">
         <v>307.7039674950863</v>
@@ -1622,7 +1622,7 @@
         <v>309.0889243177296</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>221.5719595762367</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.729581797514434</v>
+        <v>70.5563357115745</v>
       </c>
       <c r="T14" t="n">
         <v>117.4094137886081</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>149.9869067493185</v>
       </c>
       <c r="V14" t="n">
         <v>231.303770075173</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>256.6038695531299</v>
       </c>
       <c r="X14" t="n">
-        <v>275.9041277858765</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>287.3007255820753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.8252483534483</v>
+        <v>142.6358769804829</v>
       </c>
       <c r="C15" t="n">
         <v>160.0866360314548</v>
@@ -1701,10 +1701,10 @@
         <v>127.1478426882115</v>
       </c>
       <c r="H15" t="n">
-        <v>23.31804279802265</v>
+        <v>96.10512019544257</v>
       </c>
       <c r="I15" t="n">
-        <v>57.59770602445451</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.41410370969095</v>
+        <v>79.41410370969093</v>
       </c>
       <c r="C16" t="n">
-        <v>65.61409855509143</v>
+        <v>65.61409855509142</v>
       </c>
       <c r="D16" t="n">
-        <v>49.23546295266982</v>
+        <v>49.23546295266981</v>
       </c>
       <c r="E16" t="n">
-        <v>48.18321280844927</v>
+        <v>48.18321280844926</v>
       </c>
       <c r="F16" t="n">
-        <v>48.65013713663558</v>
+        <v>48.65013713663556</v>
       </c>
       <c r="G16" t="n">
-        <v>64.67888638612038</v>
+        <v>64.67888638612037</v>
       </c>
       <c r="H16" t="n">
-        <v>53.2864575217462</v>
+        <v>53.28645752174619</v>
       </c>
       <c r="I16" t="n">
-        <v>33.05881098438599</v>
+        <v>33.05881098438597</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.66188981269751</v>
+        <v>34.66188981269748</v>
       </c>
       <c r="S16" t="n">
         <v>104.9806554501277</v>
       </c>
       <c r="T16" t="n">
-        <v>127.4905602575818</v>
+        <v>127.4905602575817</v>
       </c>
       <c r="U16" t="n">
         <v>181.9992101840262</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>218.9559997185688</v>
+        <v>218.955999718569</v>
       </c>
       <c r="C17" t="n">
-        <v>206.9673166762506</v>
+        <v>206.9673166762508</v>
       </c>
       <c r="D17" t="n">
-        <v>197.9486207207786</v>
+        <v>197.9486207207788</v>
       </c>
       <c r="E17" t="n">
-        <v>219.6907582906841</v>
+        <v>219.6907582906843</v>
       </c>
       <c r="F17" t="n">
-        <v>238.8625743786613</v>
+        <v>238.8625743786615</v>
       </c>
       <c r="G17" t="n">
-        <v>240.2475312013046</v>
+        <v>240.2475312013048</v>
       </c>
       <c r="H17" t="n">
-        <v>152.7305664598117</v>
+        <v>152.7305664598119</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.714942595151885</v>
+        <v>1.714942595149694</v>
       </c>
       <c r="T17" t="n">
-        <v>48.56802067218309</v>
+        <v>48.56802067218328</v>
       </c>
       <c r="U17" t="n">
-        <v>81.14551363289345</v>
+        <v>81.14551363289365</v>
       </c>
       <c r="V17" t="n">
-        <v>162.462376958748</v>
+        <v>162.4623769587482</v>
       </c>
       <c r="W17" t="n">
-        <v>187.7624764367049</v>
+        <v>187.7624764367051</v>
       </c>
       <c r="X17" t="n">
-        <v>207.0627346694515</v>
+        <v>207.0627346694517</v>
       </c>
       <c r="Y17" t="n">
-        <v>218.4593324656502</v>
+        <v>218.4593324656504</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.57271059326592</v>
+        <v>26.24831491284871</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>17.55671857529934</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>36.13926233370265</v>
+        <v>207.2863667379727</v>
       </c>
       <c r="T19" t="n">
-        <v>58.64916714115674</v>
+        <v>58.64916714115694</v>
       </c>
       <c r="U19" t="n">
-        <v>113.1578170676012</v>
+        <v>113.1578170676014</v>
       </c>
       <c r="V19" t="n">
-        <v>120.2131698877749</v>
+        <v>86.98084699289171</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>112.147733063505</v>
       </c>
       <c r="X19" t="n">
-        <v>57.79283505930789</v>
+        <v>57.79283505930809</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.66770281537558</v>
+        <v>48.66770281537578</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>218.9559997185688</v>
+        <v>218.9559997185691</v>
       </c>
       <c r="C20" t="n">
-        <v>206.9673166762506</v>
+        <v>206.9673166762508</v>
       </c>
       <c r="D20" t="n">
-        <v>197.9486207207786</v>
+        <v>197.9486207207788</v>
       </c>
       <c r="E20" t="n">
-        <v>219.6907582906841</v>
+        <v>219.6907582906844</v>
       </c>
       <c r="F20" t="n">
-        <v>238.8625743786613</v>
+        <v>238.8625743786615</v>
       </c>
       <c r="G20" t="n">
-        <v>240.2475312013046</v>
+        <v>240.2475312013049</v>
       </c>
       <c r="H20" t="n">
-        <v>152.7305664598117</v>
+        <v>152.7305664598119</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.714942595149493</v>
+        <v>1.714942595149751</v>
       </c>
       <c r="T20" t="n">
-        <v>48.56802067218309</v>
+        <v>48.56802067218334</v>
       </c>
       <c r="U20" t="n">
-        <v>81.14551363289345</v>
+        <v>81.14551363289371</v>
       </c>
       <c r="V20" t="n">
-        <v>162.462376958748</v>
+        <v>162.4623769587482</v>
       </c>
       <c r="W20" t="n">
-        <v>187.7624764367049</v>
+        <v>187.7624764367051</v>
       </c>
       <c r="X20" t="n">
-        <v>207.0627346694515</v>
+        <v>207.0627346694517</v>
       </c>
       <c r="Y20" t="n">
-        <v>218.4593324656502</v>
+        <v>218.4593324656505</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.8252483534483</v>
+        <v>142.6358769804829</v>
       </c>
       <c r="C21" t="n">
         <v>160.0866360314548</v>
@@ -2178,7 +2178,7 @@
         <v>96.10512019544257</v>
       </c>
       <c r="I21" t="n">
-        <v>57.59770602445451</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>40.97160990302997</v>
       </c>
       <c r="S21" t="n">
-        <v>114.0067630317679</v>
+        <v>145.8222305261577</v>
       </c>
       <c r="T21" t="n">
         <v>185.615756596775</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.57271059326592</v>
+        <v>10.57271059326618</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>36.13926233370265</v>
+        <v>207.2863667379727</v>
       </c>
       <c r="T22" t="n">
-        <v>58.64916714115674</v>
+        <v>58.64916714115699</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3049214718713</v>
+        <v>146.3901399624829</v>
       </c>
       <c r="V22" t="n">
-        <v>86.98084699289151</v>
+        <v>86.98084699289177</v>
       </c>
       <c r="W22" t="n">
-        <v>112.1477330635048</v>
+        <v>112.147733063505</v>
       </c>
       <c r="X22" t="n">
-        <v>57.79283505930789</v>
+        <v>57.79283505930815</v>
       </c>
       <c r="Y22" t="n">
-        <v>81.90002571025887</v>
+        <v>48.66770281537583</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>218.9559997185688</v>
+        <v>218.9559997185691</v>
       </c>
       <c r="C23" t="n">
-        <v>206.9673166762506</v>
+        <v>206.9673166762508</v>
       </c>
       <c r="D23" t="n">
-        <v>197.9486207207786</v>
+        <v>197.9486207207788</v>
       </c>
       <c r="E23" t="n">
-        <v>219.6907582906841</v>
+        <v>219.6907582906844</v>
       </c>
       <c r="F23" t="n">
-        <v>238.8625743786613</v>
+        <v>238.8625743786615</v>
       </c>
       <c r="G23" t="n">
-        <v>240.2475312013046</v>
+        <v>240.2475312013049</v>
       </c>
       <c r="H23" t="n">
-        <v>152.7305664598117</v>
+        <v>152.7305664598119</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.714942595149495</v>
+        <v>1.714942595149751</v>
       </c>
       <c r="T23" t="n">
-        <v>48.56802067218308</v>
+        <v>48.56802067218334</v>
       </c>
       <c r="U23" t="n">
-        <v>81.14551363289345</v>
+        <v>81.14551363289371</v>
       </c>
       <c r="V23" t="n">
-        <v>162.462376958748</v>
+        <v>162.4623769587482</v>
       </c>
       <c r="W23" t="n">
-        <v>187.7624764367049</v>
+        <v>187.7624764367051</v>
       </c>
       <c r="X23" t="n">
-        <v>207.0627346694515</v>
+        <v>207.0627346694517</v>
       </c>
       <c r="Y23" t="n">
-        <v>218.4593324656502</v>
+        <v>218.4593324656505</v>
       </c>
     </row>
     <row r="24">
@@ -2406,7 +2406,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>118.1574886966563</v>
+        <v>118.1574886966598</v>
       </c>
       <c r="G24" t="n">
         <v>127.1478426882115</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>43.80503348814932</v>
+        <v>10.57271059326618</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>17.55671857529934</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>207.2863667379727</v>
+        <v>36.13926233370291</v>
       </c>
       <c r="T25" t="n">
-        <v>58.64916714115674</v>
+        <v>58.64916714115699</v>
       </c>
       <c r="U25" t="n">
-        <v>113.1578170676012</v>
+        <v>113.1578170676015</v>
       </c>
       <c r="V25" t="n">
-        <v>86.98084699289151</v>
+        <v>86.98084699289177</v>
       </c>
       <c r="W25" t="n">
-        <v>112.1477330635048</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>57.79283505930789</v>
+        <v>57.79283505930815</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.66770281537558</v>
+        <v>64.34330713495788</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>287.7973928349938</v>
+        <v>287.7973928349939</v>
       </c>
       <c r="C26" t="n">
         <v>275.8087097926756</v>
@@ -2561,19 +2561,19 @@
         <v>266.7900138372036</v>
       </c>
       <c r="E26" t="n">
-        <v>288.5321514071091</v>
+        <v>288.5321514071092</v>
       </c>
       <c r="F26" t="n">
         <v>307.7039674950863</v>
       </c>
       <c r="G26" t="n">
-        <v>309.0889243177296</v>
+        <v>309.0889243177297</v>
       </c>
       <c r="H26" t="n">
-        <v>221.5719595762367</v>
+        <v>221.5719595762368</v>
       </c>
       <c r="I26" t="n">
-        <v>47.64455280502347</v>
+        <v>47.64455280502354</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.55633571157449</v>
+        <v>70.55633571157453</v>
       </c>
       <c r="T26" t="n">
         <v>117.4094137886081</v>
@@ -2621,7 +2621,7 @@
         <v>275.9041277858765</v>
       </c>
       <c r="Y26" t="n">
-        <v>287.3007255820752</v>
+        <v>287.3007255820753</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>96.10512019544257</v>
       </c>
       <c r="I27" t="n">
-        <v>57.5977060244545</v>
+        <v>57.59770602445451</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>40.97160990302996</v>
+        <v>40.97160990302997</v>
       </c>
       <c r="S27" t="n">
         <v>145.8222305261577</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.41410370969092</v>
+        <v>79.41410370969096</v>
       </c>
       <c r="C28" t="n">
-        <v>65.6140985550914</v>
+        <v>65.61409855509145</v>
       </c>
       <c r="D28" t="n">
-        <v>49.23546295266979</v>
+        <v>49.23546295266983</v>
       </c>
       <c r="E28" t="n">
-        <v>48.18321280844924</v>
+        <v>48.18321280844928</v>
       </c>
       <c r="F28" t="n">
-        <v>48.65013713663555</v>
+        <v>48.65013713663559</v>
       </c>
       <c r="G28" t="n">
-        <v>64.67888638612035</v>
+        <v>64.6788863861204</v>
       </c>
       <c r="H28" t="n">
-        <v>53.28645752174617</v>
+        <v>53.28645752174621</v>
       </c>
       <c r="I28" t="n">
-        <v>33.05881098438596</v>
+        <v>33.058810984386</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66188981269747</v>
+        <v>34.66188981269751</v>
       </c>
       <c r="S28" t="n">
-        <v>104.9806554501276</v>
+        <v>104.9806554501277</v>
       </c>
       <c r="T28" t="n">
-        <v>127.4905602575817</v>
+        <v>127.4905602575818</v>
       </c>
       <c r="U28" t="n">
-        <v>181.9992101840262</v>
+        <v>181.9992101840263</v>
       </c>
       <c r="V28" t="n">
-        <v>155.8222401093165</v>
+        <v>155.8222401093166</v>
       </c>
       <c r="W28" t="n">
         <v>180.9891261799298</v>
@@ -2795,7 +2795,7 @@
         <v>275.8087097926756</v>
       </c>
       <c r="D29" t="n">
-        <v>266.7900138372021</v>
+        <v>266.7900138372036</v>
       </c>
       <c r="E29" t="n">
         <v>288.5321514071091</v>
@@ -3035,7 +3035,7 @@
         <v>266.7900138372036</v>
       </c>
       <c r="E32" t="n">
-        <v>288.5321514071091</v>
+        <v>288.5321514071092</v>
       </c>
       <c r="F32" t="n">
         <v>307.7039674950863</v>
@@ -3047,7 +3047,7 @@
         <v>221.5719595762367</v>
       </c>
       <c r="I32" t="n">
-        <v>47.64455280502348</v>
+        <v>47.64455280502352</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.5563357115745</v>
+        <v>70.55633571157452</v>
       </c>
       <c r="T32" t="n">
         <v>117.4094137886081</v>
@@ -3095,7 +3095,7 @@
         <v>275.9041277858765</v>
       </c>
       <c r="Y32" t="n">
-        <v>287.3007255820752</v>
+        <v>287.3007255820753</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>96.10512019544257</v>
       </c>
       <c r="I33" t="n">
-        <v>57.5977060244545</v>
+        <v>57.59770602445451</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>40.97160990302996</v>
+        <v>40.97160990302997</v>
       </c>
       <c r="S33" t="n">
         <v>145.8222305261577</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.41410370969093</v>
+        <v>79.41410370969095</v>
       </c>
       <c r="C34" t="n">
-        <v>65.61409855509142</v>
+        <v>65.61409855509143</v>
       </c>
       <c r="D34" t="n">
-        <v>49.23546295266981</v>
+        <v>49.23546295266982</v>
       </c>
       <c r="E34" t="n">
-        <v>48.18321280844926</v>
+        <v>48.18321280844927</v>
       </c>
       <c r="F34" t="n">
-        <v>48.65013713663556</v>
+        <v>48.65013713663558</v>
       </c>
       <c r="G34" t="n">
-        <v>64.67888638612037</v>
+        <v>64.67888638612038</v>
       </c>
       <c r="H34" t="n">
-        <v>53.28645752174619</v>
+        <v>53.2864575217462</v>
       </c>
       <c r="I34" t="n">
-        <v>33.05881098438597</v>
+        <v>33.05881098438599</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66188981269748</v>
+        <v>34.66188981269751</v>
       </c>
       <c r="S34" t="n">
         <v>104.9806554501277</v>
       </c>
       <c r="T34" t="n">
-        <v>127.4905602575817</v>
+        <v>127.4905602575818</v>
       </c>
       <c r="U34" t="n">
         <v>181.9992101840262</v>
@@ -3363,7 +3363,7 @@
         <v>96.10512019544257</v>
       </c>
       <c r="I36" t="n">
-        <v>57.5977060244545</v>
+        <v>57.59770602445451</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>40.97160990302996</v>
+        <v>40.97160990302997</v>
       </c>
       <c r="S36" t="n">
         <v>145.8222305261577</v>
@@ -3424,7 +3424,7 @@
         <v>15.77178755022462</v>
       </c>
       <c r="C37" t="n">
-        <v>161.7502414168302</v>
+        <v>1.971782395625098</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>41.33833929066134</v>
+        <v>41.33833929066135</v>
       </c>
       <c r="T37" t="n">
         <v>63.84824409811543</v>
@@ -3490,7 +3490,7 @@
         <v>62.99191201626658</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.86677977233427</v>
+        <v>213.6452387935391</v>
       </c>
     </row>
     <row r="38">
@@ -3503,13 +3503,13 @@
         <v>224.1550766755276</v>
       </c>
       <c r="C38" t="n">
-        <v>212.1663936332094</v>
+        <v>212.1663936332093</v>
       </c>
       <c r="D38" t="n">
         <v>203.1476976777373</v>
       </c>
       <c r="E38" t="n">
-        <v>224.8898352476429</v>
+        <v>224.8898352476428</v>
       </c>
       <c r="F38" t="n">
         <v>244.06165133562</v>
@@ -3518,7 +3518,7 @@
         <v>245.4466081582634</v>
       </c>
       <c r="H38" t="n">
-        <v>157.9296434167705</v>
+        <v>157.9296434167704</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.914019552108272</v>
+        <v>6.914019552108243</v>
       </c>
       <c r="T38" t="n">
-        <v>53.76709762914186</v>
+        <v>53.76709762914183</v>
       </c>
       <c r="U38" t="n">
-        <v>86.34459058985223</v>
+        <v>86.3445905898522</v>
       </c>
       <c r="V38" t="n">
         <v>167.6614539157067</v>
@@ -3566,7 +3566,7 @@
         <v>192.9615533936636</v>
       </c>
       <c r="X38" t="n">
-        <v>212.2618116264103</v>
+        <v>212.2618116264102</v>
       </c>
       <c r="Y38" t="n">
         <v>223.658409422609</v>
@@ -3600,7 +3600,7 @@
         <v>96.10512019544257</v>
       </c>
       <c r="I39" t="n">
-        <v>57.5977060244545</v>
+        <v>57.59770602445514</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>40.97160990302996</v>
+        <v>40.97160990302997</v>
       </c>
       <c r="S39" t="n">
         <v>145.8222305261577</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.7717875502247</v>
+        <v>15.77178755022467</v>
       </c>
       <c r="C40" t="n">
-        <v>1.971782395625183</v>
+        <v>1.971782395625155</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.036570226654141</v>
+        <v>1.036570226654112</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>17.55671857529934</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>201.1167983118655</v>
+        <v>41.3383392906614</v>
       </c>
       <c r="T40" t="n">
-        <v>63.84824409811552</v>
+        <v>206.0699845440203</v>
       </c>
       <c r="U40" t="n">
         <v>118.35689402456</v>
       </c>
       <c r="V40" t="n">
-        <v>92.17992394985029</v>
+        <v>92.17992394985026</v>
       </c>
       <c r="W40" t="n">
-        <v>117.3468100204636</v>
+        <v>117.3468100204635</v>
       </c>
       <c r="X40" t="n">
-        <v>62.99191201626667</v>
+        <v>62.99191201626664</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.86677977233435</v>
+        <v>53.86677977233433</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>240.1528400299704</v>
+        <v>240.1528400299703</v>
       </c>
       <c r="C41" t="n">
         <v>228.1641569876521</v>
       </c>
       <c r="D41" t="n">
-        <v>219.1454610321801</v>
+        <v>219.14546103218</v>
       </c>
       <c r="E41" t="n">
         <v>240.8875986020856</v>
       </c>
       <c r="F41" t="n">
-        <v>260.0594146900628</v>
+        <v>260.0594146900627</v>
       </c>
       <c r="G41" t="n">
-        <v>261.4443715127061</v>
+        <v>37.47568455050872</v>
       </c>
       <c r="H41" t="n">
-        <v>42.63536369914983</v>
+        <v>173.9274067712132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>22.91178290655097</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>69.76486098358457</v>
       </c>
       <c r="U41" t="n">
-        <v>102.342353944295</v>
+        <v>102.3423539442949</v>
       </c>
       <c r="V41" t="n">
-        <v>183.6592172701495</v>
+        <v>183.6592172701494</v>
       </c>
       <c r="W41" t="n">
-        <v>208.9593167481064</v>
+        <v>208.9593167481063</v>
       </c>
       <c r="X41" t="n">
         <v>228.259574980853</v>
       </c>
       <c r="Y41" t="n">
-        <v>239.6561727770518</v>
+        <v>239.6561727770517</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>96.10512019544257</v>
       </c>
       <c r="I42" t="n">
-        <v>57.5977060244545</v>
+        <v>57.59770602445451</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>40.97160990302996</v>
+        <v>40.97160990302997</v>
       </c>
       <c r="S42" t="n">
         <v>145.8222305261577</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.76955090466745</v>
+        <v>31.7695509046674</v>
       </c>
       <c r="C43" t="n">
-        <v>17.96954575006794</v>
+        <v>17.96954575006788</v>
       </c>
       <c r="D43" t="n">
-        <v>1.590910147646326</v>
+        <v>1.590910147646269</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5386600034257754</v>
+        <v>0.5386600034257185</v>
       </c>
       <c r="F43" t="n">
-        <v>1.005584331612084</v>
+        <v>1.005584331612027</v>
       </c>
       <c r="G43" t="n">
-        <v>17.0343335810969</v>
+        <v>17.03433358109684</v>
       </c>
       <c r="H43" t="n">
-        <v>5.641904716722703</v>
+        <v>5.641904716722648</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.33610264510418</v>
+        <v>57.33610264510413</v>
       </c>
       <c r="T43" t="n">
-        <v>79.84600745255827</v>
+        <v>79.84600745255821</v>
       </c>
       <c r="U43" t="n">
         <v>134.3546573790027</v>
@@ -3958,13 +3958,13 @@
         <v>108.177687304293</v>
       </c>
       <c r="W43" t="n">
-        <v>133.3445733749063</v>
+        <v>133.3445733749062</v>
       </c>
       <c r="X43" t="n">
-        <v>78.98967537070942</v>
+        <v>78.98967537070936</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.86454312677711</v>
+        <v>69.86454312677705</v>
       </c>
     </row>
     <row r="44">
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>240.1528400299704</v>
+        <v>240.1528400299703</v>
       </c>
       <c r="C44" t="n">
-        <v>4.195470025453164</v>
+        <v>228.1641569876521</v>
       </c>
       <c r="D44" t="n">
         <v>219.1454610321801</v>
@@ -3989,7 +3989,7 @@
         <v>260.0594146900628</v>
       </c>
       <c r="G44" t="n">
-        <v>261.4443715127061</v>
+        <v>37.47568455050827</v>
       </c>
       <c r="H44" t="n">
         <v>173.9274067712132</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>22.91178290655101</v>
+        <v>22.911782906551</v>
       </c>
       <c r="T44" t="n">
-        <v>69.76486098358461</v>
+        <v>69.76486098358458</v>
       </c>
       <c r="U44" t="n">
         <v>102.342353944295</v>
@@ -4074,7 +4074,7 @@
         <v>96.10512019544257</v>
       </c>
       <c r="I45" t="n">
-        <v>57.5977060244545</v>
+        <v>57.59770602445451</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>40.97160990302996</v>
+        <v>40.97160990302997</v>
       </c>
       <c r="S45" t="n">
         <v>145.8222305261577</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.76955090466745</v>
+        <v>31.76955090466743</v>
       </c>
       <c r="C46" t="n">
-        <v>17.96954575006794</v>
+        <v>17.96954575006791</v>
       </c>
       <c r="D46" t="n">
-        <v>1.590910147646326</v>
+        <v>1.590910147646298</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5386600034257754</v>
+        <v>0.5386600034257469</v>
       </c>
       <c r="F46" t="n">
-        <v>1.005584331612084</v>
+        <v>1.005584331612056</v>
       </c>
       <c r="G46" t="n">
-        <v>17.0343335810969</v>
+        <v>17.03433358109687</v>
       </c>
       <c r="H46" t="n">
-        <v>5.641904716722703</v>
+        <v>5.641904716722676</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.33610264510418</v>
+        <v>57.33610264510416</v>
       </c>
       <c r="T46" t="n">
-        <v>79.84600745255827</v>
+        <v>79.84600745255824</v>
       </c>
       <c r="U46" t="n">
         <v>134.3546573790027</v>
@@ -4198,10 +4198,10 @@
         <v>133.3445733749063</v>
       </c>
       <c r="X46" t="n">
-        <v>78.98967537070942</v>
+        <v>78.98967537070939</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.86454312677711</v>
+        <v>69.86454312677708</v>
       </c>
     </row>
   </sheetData>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1222.668859002838</v>
+        <v>761.9598780021729</v>
       </c>
       <c r="C11" t="n">
-        <v>944.0742026466003</v>
+        <v>677.5379702660318</v>
       </c>
       <c r="D11" t="n">
-        <v>944.0742026466003</v>
+        <v>408.05310780421</v>
       </c>
       <c r="E11" t="n">
-        <v>944.0742026466003</v>
+        <v>408.05310780421</v>
       </c>
       <c r="F11" t="n">
-        <v>633.2621142677251</v>
+        <v>97.24101942533497</v>
       </c>
       <c r="G11" t="n">
-        <v>321.0510796033518</v>
+        <v>97.24101942533497</v>
       </c>
       <c r="H11" t="n">
-        <v>97.24101942533491</v>
+        <v>97.24101942533497</v>
       </c>
       <c r="I11" t="n">
         <v>49.11520851116971</v>
       </c>
       <c r="J11" t="n">
-        <v>167.1855976961822</v>
+        <v>49.11520851116971</v>
       </c>
       <c r="K11" t="n">
-        <v>476.3757223706194</v>
+        <v>358.3053331856069</v>
       </c>
       <c r="L11" t="n">
-        <v>909.9234193894449</v>
+        <v>791.8530302044323</v>
       </c>
       <c r="M11" t="n">
-        <v>1398.478426381755</v>
+        <v>1124.838123375174</v>
       </c>
       <c r="N11" t="n">
         <v>1600.027632754915</v>
@@ -5078,13 +5078,13 @@
         <v>1880.753934321441</v>
       </c>
       <c r="W11" t="n">
-        <v>1791.562650283598</v>
+        <v>1621.558106489997</v>
       </c>
       <c r="X11" t="n">
-        <v>1512.871612116046</v>
+        <v>1342.867068322445</v>
       </c>
       <c r="Y11" t="n">
-        <v>1222.668859002838</v>
+        <v>1052.664315209237</v>
       </c>
     </row>
     <row r="12">
@@ -5100,43 +5100,43 @@
         <v>679.8408974644026</v>
       </c>
       <c r="D12" t="n">
-        <v>614.524560856049</v>
+        <v>541.0022604546147</v>
       </c>
       <c r="E12" t="n">
-        <v>467.4965509129202</v>
+        <v>393.9742505114859</v>
       </c>
       <c r="F12" t="n">
-        <v>332.8027528627945</v>
+        <v>274.623251827992</v>
       </c>
       <c r="G12" t="n">
-        <v>204.3705885312678</v>
+        <v>146.1910874964652</v>
       </c>
       <c r="H12" t="n">
-        <v>107.2947095459723</v>
+        <v>49.11520851116971</v>
       </c>
       <c r="I12" t="n">
         <v>49.11520851116971</v>
       </c>
       <c r="J12" t="n">
-        <v>49.11520851116971</v>
+        <v>136.8094302502513</v>
       </c>
       <c r="K12" t="n">
-        <v>325.5052201892451</v>
+        <v>225.3001994400277</v>
       </c>
       <c r="L12" t="n">
-        <v>754.389175896096</v>
+        <v>654.1841551468785</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.013037955099</v>
+        <v>1212.808017205882</v>
       </c>
       <c r="N12" t="n">
-        <v>1636.900804789928</v>
+        <v>1799.611893663674</v>
       </c>
       <c r="O12" t="n">
-        <v>2098.203478739139</v>
+        <v>2260.914567612885</v>
       </c>
       <c r="P12" t="n">
-        <v>2455.760425558486</v>
+        <v>2260.914567612885</v>
       </c>
       <c r="Q12" t="n">
         <v>2455.760425558486</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.4859825971276</v>
+        <v>415.485982597128</v>
       </c>
       <c r="C13" t="n">
-        <v>349.2091153697626</v>
+        <v>349.209115369763</v>
       </c>
       <c r="D13" t="n">
-        <v>299.4763245084799</v>
+        <v>299.4763245084803</v>
       </c>
       <c r="E13" t="n">
-        <v>250.8064125807533</v>
+        <v>250.8064125807538</v>
       </c>
       <c r="F13" t="n">
-        <v>201.664859917485</v>
+        <v>201.6648599174855</v>
       </c>
       <c r="G13" t="n">
-        <v>136.3326514466568</v>
+        <v>136.3326514466567</v>
       </c>
       <c r="H13" t="n">
         <v>82.50794687923637</v>
@@ -5197,10 +5197,10 @@
         <v>49.11520851116971</v>
       </c>
       <c r="J13" t="n">
-        <v>108.7507845042758</v>
+        <v>108.750784504276</v>
       </c>
       <c r="K13" t="n">
-        <v>271.9271947575711</v>
+        <v>271.9271947575712</v>
       </c>
       <c r="L13" t="n">
         <v>510.0178360424287</v>
@@ -5218,7 +5218,7 @@
         <v>1452.292671539893</v>
       </c>
       <c r="Q13" t="n">
-        <v>1536.194174325314</v>
+        <v>1536.194174325313</v>
       </c>
       <c r="R13" t="n">
         <v>1501.182164413498</v>
@@ -5233,16 +5233,16 @@
         <v>1082.52516856326</v>
       </c>
       <c r="V13" t="n">
-        <v>925.128966432637</v>
+        <v>925.1289664326374</v>
       </c>
       <c r="W13" t="n">
-        <v>742.3116672609907</v>
+        <v>742.3116672609912</v>
       </c>
       <c r="X13" t="n">
-        <v>614.3983054673211</v>
+        <v>614.3983054673215</v>
       </c>
       <c r="Y13" t="n">
-        <v>495.7022489705528</v>
+        <v>495.7022489705532</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1242.179605493595</v>
+        <v>1330.853669282932</v>
       </c>
       <c r="C14" t="n">
-        <v>963.5849491373567</v>
+        <v>1330.853669282932</v>
       </c>
       <c r="D14" t="n">
-        <v>963.5849491373567</v>
+        <v>1187.395009315373</v>
       </c>
       <c r="E14" t="n">
-        <v>672.1383315544182</v>
+        <v>895.9483917324349</v>
       </c>
       <c r="F14" t="n">
-        <v>361.3262431755431</v>
+        <v>585.1363033535598</v>
       </c>
       <c r="G14" t="n">
-        <v>49.11520851116971</v>
+        <v>272.9252686891866</v>
       </c>
       <c r="H14" t="n">
         <v>49.11520851116971</v>
@@ -5276,13 +5276,13 @@
         <v>49.11520851116971</v>
       </c>
       <c r="J14" t="n">
-        <v>167.1855976961822</v>
+        <v>167.1855976961823</v>
       </c>
       <c r="K14" t="n">
         <v>476.3757223706195</v>
       </c>
       <c r="L14" t="n">
-        <v>909.923419389445</v>
+        <v>909.9234193894451</v>
       </c>
       <c r="M14" t="n">
         <v>1398.478426381755</v>
@@ -5294,7 +5294,7 @@
         <v>2270.13292535902</v>
       </c>
       <c r="P14" t="n">
-        <v>2455.760425558486</v>
+        <v>2302.708858571157</v>
       </c>
       <c r="Q14" t="n">
         <v>2455.760425558486</v>
@@ -5303,25 +5303,25 @@
         <v>2455.760425558486</v>
       </c>
       <c r="S14" t="n">
-        <v>2454.013373237764</v>
+        <v>2384.491399587198</v>
       </c>
       <c r="T14" t="n">
-        <v>2335.418005774523</v>
+        <v>2265.896032123958</v>
       </c>
       <c r="U14" t="n">
-        <v>2335.418005774523</v>
+        <v>2114.394106114545</v>
       </c>
       <c r="V14" t="n">
-        <v>2101.777833981419</v>
+        <v>1880.753934321441</v>
       </c>
       <c r="W14" t="n">
-        <v>2101.777833981419</v>
+        <v>1621.558106489997</v>
       </c>
       <c r="X14" t="n">
-        <v>1823.086795813867</v>
+        <v>1621.558106489997</v>
       </c>
       <c r="Y14" t="n">
-        <v>1532.88404270066</v>
+        <v>1621.558106489997</v>
       </c>
     </row>
     <row r="15">
@@ -5331,40 +5331,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>841.5445702234479</v>
+        <v>856.8873695900796</v>
       </c>
       <c r="C15" t="n">
-        <v>679.8408974644026</v>
+        <v>695.1836968310344</v>
       </c>
       <c r="D15" t="n">
-        <v>541.0022604546147</v>
+        <v>556.3450598212464</v>
       </c>
       <c r="E15" t="n">
-        <v>393.9742505114859</v>
+        <v>409.3170498781176</v>
       </c>
       <c r="F15" t="n">
-        <v>259.2804524613603</v>
+        <v>274.623251827992</v>
       </c>
       <c r="G15" t="n">
-        <v>130.8482881298335</v>
+        <v>146.1910874964652</v>
       </c>
       <c r="H15" t="n">
-        <v>107.2947095459723</v>
+        <v>49.11520851116971</v>
       </c>
       <c r="I15" t="n">
         <v>49.11520851116971</v>
       </c>
       <c r="J15" t="n">
-        <v>136.8094302502513</v>
+        <v>49.11520851116971</v>
       </c>
       <c r="K15" t="n">
-        <v>413.1994419283267</v>
+        <v>325.5052201892452</v>
       </c>
       <c r="L15" t="n">
-        <v>842.0833976351776</v>
+        <v>754.389175896096</v>
       </c>
       <c r="M15" t="n">
-        <v>1400.707259694181</v>
+        <v>855.2510703865343</v>
       </c>
       <c r="N15" t="n">
         <v>1442.054946844327</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.485982597128</v>
+        <v>415.4859825971278</v>
       </c>
       <c r="C16" t="n">
-        <v>349.2091153697629</v>
+        <v>349.2091153697627</v>
       </c>
       <c r="D16" t="n">
-        <v>299.4763245084803</v>
+        <v>299.47632450848</v>
       </c>
       <c r="E16" t="n">
-        <v>250.8064125807537</v>
+        <v>250.8064125807535</v>
       </c>
       <c r="F16" t="n">
-        <v>201.6648599174854</v>
+        <v>201.6648599174852</v>
       </c>
       <c r="G16" t="n">
-        <v>136.3326514466568</v>
+        <v>136.3326514466566</v>
       </c>
       <c r="H16" t="n">
-        <v>82.50794687923636</v>
+        <v>82.50794687923621</v>
       </c>
       <c r="I16" t="n">
         <v>49.11520851116971</v>
       </c>
       <c r="J16" t="n">
-        <v>108.7507845042758</v>
+        <v>108.7507845042759</v>
       </c>
       <c r="K16" t="n">
-        <v>271.9271947575714</v>
+        <v>271.9271947575713</v>
       </c>
       <c r="L16" t="n">
-        <v>510.0178360424289</v>
+        <v>510.0178360424288</v>
       </c>
       <c r="M16" t="n">
         <v>767.4627777830048</v>
@@ -5452,7 +5452,7 @@
         <v>1258.592048729798</v>
       </c>
       <c r="P16" t="n">
-        <v>1452.292671539894</v>
+        <v>1452.292671539893</v>
       </c>
       <c r="Q16" t="n">
         <v>1536.194174325314</v>
@@ -5470,16 +5470,16 @@
         <v>1082.52516856326</v>
       </c>
       <c r="V16" t="n">
-        <v>925.1289664326374</v>
+        <v>925.128966432637</v>
       </c>
       <c r="W16" t="n">
-        <v>742.3116672609912</v>
+        <v>742.3116672609908</v>
       </c>
       <c r="X16" t="n">
-        <v>614.3983054673215</v>
+        <v>614.3983054673213</v>
       </c>
       <c r="Y16" t="n">
-        <v>495.7022489705532</v>
+        <v>495.7022489705529</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1318.253963791463</v>
+        <v>1318.253963791464</v>
       </c>
       <c r="C17" t="n">
-        <v>1109.196068158887</v>
+        <v>1109.196068158888</v>
       </c>
       <c r="D17" t="n">
-        <v>909.2479664207265</v>
+        <v>909.2479664207272</v>
       </c>
       <c r="E17" t="n">
-        <v>687.3381095614495</v>
+        <v>687.3381095614501</v>
       </c>
       <c r="F17" t="n">
-        <v>446.0627819062367</v>
+        <v>446.0627819062365</v>
       </c>
       <c r="G17" t="n">
-        <v>203.388507965525</v>
+        <v>203.3885079655252</v>
       </c>
       <c r="H17" t="n">
         <v>49.11520851116971</v>
@@ -5513,16 +5513,16 @@
         <v>49.11520851116971</v>
       </c>
       <c r="J17" t="n">
-        <v>167.1855976961822</v>
+        <v>167.1855976961823</v>
       </c>
       <c r="K17" t="n">
         <v>476.3757223706195</v>
       </c>
       <c r="L17" t="n">
-        <v>909.923419389445</v>
+        <v>909.9234193894451</v>
       </c>
       <c r="M17" t="n">
-        <v>1124.838123375173</v>
+        <v>1398.478426381755</v>
       </c>
       <c r="N17" t="n">
         <v>1600.027632754915</v>
@@ -5540,25 +5540,25 @@
         <v>2455.760425558486</v>
       </c>
       <c r="S17" t="n">
-        <v>2454.028160310857</v>
+        <v>2454.02816031086</v>
       </c>
       <c r="T17" t="n">
-        <v>2404.969553571279</v>
+        <v>2404.969553571281</v>
       </c>
       <c r="U17" t="n">
-        <v>2323.004388285528</v>
+        <v>2323.00438828553</v>
       </c>
       <c r="V17" t="n">
-        <v>2158.900977216085</v>
+        <v>2158.900977216087</v>
       </c>
       <c r="W17" t="n">
-        <v>1969.241910108302</v>
+        <v>1969.241910108304</v>
       </c>
       <c r="X17" t="n">
-        <v>1760.087632664412</v>
+        <v>1760.087632664413</v>
       </c>
       <c r="Y17" t="n">
-        <v>1539.421640274866</v>
+        <v>1539.421640274867</v>
       </c>
     </row>
     <row r="18">
@@ -5598,10 +5598,10 @@
         <v>413.1994419283267</v>
       </c>
       <c r="L18" t="n">
-        <v>842.0833976351776</v>
+        <v>842.0833976351777</v>
       </c>
       <c r="M18" t="n">
-        <v>855.2510703865343</v>
+        <v>1400.707259694181</v>
       </c>
       <c r="N18" t="n">
         <v>1442.054946844327</v>
@@ -5692,31 +5692,31 @@
         <v>784.9611704969876</v>
       </c>
       <c r="Q19" t="n">
-        <v>784.9611704969876</v>
+        <v>767.2271113300186</v>
       </c>
       <c r="R19" t="n">
-        <v>784.9611704969876</v>
+        <v>767.2271113300186</v>
       </c>
       <c r="S19" t="n">
-        <v>748.4568651094091</v>
+        <v>557.8469429078239</v>
       </c>
       <c r="T19" t="n">
-        <v>689.2152821385438</v>
+        <v>498.6053599369583</v>
       </c>
       <c r="U19" t="n">
-        <v>574.9144568177345</v>
+        <v>384.3045346161488</v>
       </c>
       <c r="V19" t="n">
-        <v>453.4870124866488</v>
+        <v>296.4450932091875</v>
       </c>
       <c r="W19" t="n">
-        <v>167.3306110040479</v>
+        <v>183.1645547612026</v>
       </c>
       <c r="X19" t="n">
-        <v>108.9540099340399</v>
+        <v>124.7879536911944</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.79471416093327</v>
+        <v>75.6286579180876</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1318.253963791465</v>
+        <v>1318.253963791464</v>
       </c>
       <c r="C20" t="n">
         <v>1109.196068158888</v>
       </c>
       <c r="D20" t="n">
-        <v>909.2479664207283</v>
+        <v>909.2479664207276</v>
       </c>
       <c r="E20" t="n">
-        <v>687.3381095614513</v>
+        <v>687.3381095614504</v>
       </c>
       <c r="F20" t="n">
-        <v>446.0627819062381</v>
+        <v>446.0627819062368</v>
       </c>
       <c r="G20" t="n">
-        <v>203.388507965525</v>
+        <v>203.3885079655252</v>
       </c>
       <c r="H20" t="n">
         <v>49.11520851116971</v>
@@ -5750,25 +5750,25 @@
         <v>49.11520851116971</v>
       </c>
       <c r="J20" t="n">
-        <v>49.11520851116971</v>
+        <v>167.1855976961823</v>
       </c>
       <c r="K20" t="n">
-        <v>358.305333185607</v>
+        <v>476.3757223706195</v>
       </c>
       <c r="L20" t="n">
-        <v>791.8530302044326</v>
+        <v>909.9234193894451</v>
       </c>
       <c r="M20" t="n">
-        <v>1280.408037196742</v>
+        <v>1124.838123375173</v>
       </c>
       <c r="N20" t="n">
-        <v>1755.597546576485</v>
+        <v>1600.027632754915</v>
       </c>
       <c r="O20" t="n">
-        <v>2152.062536174008</v>
+        <v>1996.492622352439</v>
       </c>
       <c r="P20" t="n">
-        <v>2455.760425558486</v>
+        <v>2302.708858571157</v>
       </c>
       <c r="Q20" t="n">
         <v>2455.760425558486</v>
@@ -5777,13 +5777,13 @@
         <v>2455.760425558486</v>
       </c>
       <c r="S20" t="n">
-        <v>2454.028160310859</v>
+        <v>2454.02816031086</v>
       </c>
       <c r="T20" t="n">
-        <v>2404.96955357128</v>
+        <v>2404.969553571281</v>
       </c>
       <c r="U20" t="n">
-        <v>2323.004388285529</v>
+        <v>2323.00438828553</v>
       </c>
       <c r="V20" t="n">
         <v>2158.900977216087</v>
@@ -5792,7 +5792,7 @@
         <v>1969.241910108304</v>
       </c>
       <c r="X20" t="n">
-        <v>1760.087632664413</v>
+        <v>1760.087632664414</v>
       </c>
       <c r="Y20" t="n">
         <v>1539.421640274868</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>915.0668706248822</v>
+        <v>856.8873695900796</v>
       </c>
       <c r="C21" t="n">
-        <v>753.3631978658369</v>
+        <v>695.1836968310344</v>
       </c>
       <c r="D21" t="n">
-        <v>614.524560856049</v>
+        <v>556.3450598212464</v>
       </c>
       <c r="E21" t="n">
-        <v>467.4965509129202</v>
+        <v>409.3170498781176</v>
       </c>
       <c r="F21" t="n">
-        <v>332.8027528627945</v>
+        <v>274.623251827992</v>
       </c>
       <c r="G21" t="n">
-        <v>204.3705885312678</v>
+        <v>146.1910874964652</v>
       </c>
       <c r="H21" t="n">
-        <v>107.2947095459723</v>
+        <v>49.11520851116971</v>
       </c>
       <c r="I21" t="n">
         <v>49.11520851116971</v>
@@ -5835,10 +5835,10 @@
         <v>413.1994419283267</v>
       </c>
       <c r="L21" t="n">
-        <v>842.0833976351776</v>
+        <v>842.0833976351777</v>
       </c>
       <c r="M21" t="n">
-        <v>1400.707259694181</v>
+        <v>855.2510703865343</v>
       </c>
       <c r="N21" t="n">
         <v>1442.054946844327</v>
@@ -5853,28 +5853,28 @@
         <v>2455.760425558486</v>
       </c>
       <c r="R21" t="n">
-        <v>2455.760425558486</v>
+        <v>2414.37496100997</v>
       </c>
       <c r="S21" t="n">
-        <v>2340.60207906175</v>
+        <v>2267.079778660316</v>
       </c>
       <c r="T21" t="n">
-        <v>2153.111415832685</v>
+        <v>2079.58911543125</v>
       </c>
       <c r="U21" t="n">
-        <v>1934.636119197126</v>
+        <v>1861.113818795691</v>
       </c>
       <c r="V21" t="n">
-        <v>1706.24049664546</v>
+        <v>1632.718196244025</v>
       </c>
       <c r="W21" t="n">
-        <v>1464.92462787877</v>
+        <v>1391.402327477335</v>
       </c>
       <c r="X21" t="n">
-        <v>1267.007639756564</v>
+        <v>1193.48533935513</v>
       </c>
       <c r="Y21" t="n">
-        <v>1074.486313406143</v>
+        <v>1000.964013004709</v>
       </c>
     </row>
     <row r="22">
@@ -5935,25 +5935,25 @@
         <v>784.9611704969876</v>
       </c>
       <c r="S22" t="n">
-        <v>748.4568651094091</v>
+        <v>575.5810020747929</v>
       </c>
       <c r="T22" t="n">
-        <v>689.2152821385438</v>
+        <v>516.3394191039272</v>
       </c>
       <c r="U22" t="n">
-        <v>402.0385937831182</v>
+        <v>368.4705908589949</v>
       </c>
       <c r="V22" t="n">
-        <v>314.179152376157</v>
+        <v>280.6111494520335</v>
       </c>
       <c r="W22" t="n">
-        <v>200.8986139281724</v>
+        <v>167.3306110040487</v>
       </c>
       <c r="X22" t="n">
-        <v>142.5220128581645</v>
+        <v>108.9540099340404</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.79471416093327</v>
+        <v>59.79471416093353</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1318.253963791464</v>
+        <v>1318.253963791465</v>
       </c>
       <c r="C23" t="n">
-        <v>1109.196068158887</v>
+        <v>1109.196068158888</v>
       </c>
       <c r="D23" t="n">
-        <v>909.2479664207269</v>
+        <v>909.2479664207281</v>
       </c>
       <c r="E23" t="n">
-        <v>687.33810956145</v>
+        <v>687.3381095614507</v>
       </c>
       <c r="F23" t="n">
-        <v>446.0627819062365</v>
+        <v>446.0627819062372</v>
       </c>
       <c r="G23" t="n">
-        <v>203.3885079655249</v>
+        <v>203.3885079655252</v>
       </c>
       <c r="H23" t="n">
-        <v>49.11520851116966</v>
+        <v>49.11520851116973</v>
       </c>
       <c r="I23" t="n">
-        <v>49.11520851116966</v>
+        <v>49.11520851116973</v>
       </c>
       <c r="J23" t="n">
-        <v>49.11520851116966</v>
+        <v>167.1855976961823</v>
       </c>
       <c r="K23" t="n">
-        <v>358.3053331856069</v>
+        <v>476.3757223706196</v>
       </c>
       <c r="L23" t="n">
-        <v>791.8530302044325</v>
+        <v>909.9234193894451</v>
       </c>
       <c r="M23" t="n">
-        <v>1280.408037196742</v>
+        <v>1398.478426381755</v>
       </c>
       <c r="N23" t="n">
-        <v>1755.597546576485</v>
+        <v>1600.027632754916</v>
       </c>
       <c r="O23" t="n">
-        <v>2152.062536174008</v>
+        <v>1996.492622352439</v>
       </c>
       <c r="P23" t="n">
-        <v>2455.760425558483</v>
+        <v>2302.708858571158</v>
       </c>
       <c r="Q23" t="n">
-        <v>2455.760425558483</v>
+        <v>2455.760425558487</v>
       </c>
       <c r="R23" t="n">
-        <v>2455.760425558483</v>
+        <v>2455.760425558487</v>
       </c>
       <c r="S23" t="n">
-        <v>2454.028160310857</v>
+        <v>2454.028160310861</v>
       </c>
       <c r="T23" t="n">
-        <v>2404.969553571278</v>
+        <v>2404.969553571282</v>
       </c>
       <c r="U23" t="n">
-        <v>2323.004388285528</v>
+        <v>2323.004388285531</v>
       </c>
       <c r="V23" t="n">
-        <v>2158.900977216086</v>
+        <v>2158.900977216088</v>
       </c>
       <c r="W23" t="n">
-        <v>1969.241910108303</v>
+        <v>1969.241910108305</v>
       </c>
       <c r="X23" t="n">
-        <v>1760.087632664412</v>
+        <v>1760.087632664414</v>
       </c>
       <c r="Y23" t="n">
-        <v>1539.421640274866</v>
+        <v>1539.421640274868</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>841.5445702234451</v>
+        <v>841.5445702234488</v>
       </c>
       <c r="C24" t="n">
-        <v>679.8408974643999</v>
+        <v>679.8408974644035</v>
       </c>
       <c r="D24" t="n">
-        <v>541.0022604546119</v>
+        <v>541.0022604546156</v>
       </c>
       <c r="E24" t="n">
-        <v>393.9742505114831</v>
+        <v>393.9742505114868</v>
       </c>
       <c r="F24" t="n">
-        <v>274.6232518279919</v>
+        <v>274.623251827992</v>
       </c>
       <c r="G24" t="n">
-        <v>146.1910874964652</v>
+        <v>146.1910874964653</v>
       </c>
       <c r="H24" t="n">
-        <v>49.11520851116966</v>
+        <v>49.11520851116973</v>
       </c>
       <c r="I24" t="n">
-        <v>49.11520851116966</v>
+        <v>49.11520851116973</v>
       </c>
       <c r="J24" t="n">
         <v>136.8094302502513</v>
       </c>
       <c r="K24" t="n">
-        <v>413.1994419283267</v>
+        <v>413.1994419283268</v>
       </c>
       <c r="L24" t="n">
-        <v>842.0833976351776</v>
+        <v>842.0833976351778</v>
       </c>
       <c r="M24" t="n">
         <v>1400.707259694181</v>
       </c>
       <c r="N24" t="n">
-        <v>1442.054946844324</v>
+        <v>1442.054946844328</v>
       </c>
       <c r="O24" t="n">
-        <v>1903.357620793535</v>
+        <v>1903.357620793538</v>
       </c>
       <c r="P24" t="n">
-        <v>2260.914567612882</v>
+        <v>2260.914567612886</v>
       </c>
       <c r="Q24" t="n">
-        <v>2455.760425558483</v>
+        <v>2455.760425558487</v>
       </c>
       <c r="R24" t="n">
-        <v>2414.374961009968</v>
+        <v>2414.374961009971</v>
       </c>
       <c r="S24" t="n">
-        <v>2267.079778660313</v>
+        <v>2267.079778660317</v>
       </c>
       <c r="T24" t="n">
-        <v>2079.589115431248</v>
+        <v>2079.589115431251</v>
       </c>
       <c r="U24" t="n">
-        <v>1861.113818795689</v>
+        <v>1861.113818795692</v>
       </c>
       <c r="V24" t="n">
-        <v>1632.718196244022</v>
+        <v>1632.718196244026</v>
       </c>
       <c r="W24" t="n">
-        <v>1391.402327477333</v>
+        <v>1391.402327477336</v>
       </c>
       <c r="X24" t="n">
-        <v>1193.485339355127</v>
+        <v>1193.485339355131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000.964013004706</v>
+        <v>1000.96401300471</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.11520851116966</v>
+        <v>49.11520851116973</v>
       </c>
       <c r="C25" t="n">
-        <v>49.11520851116966</v>
+        <v>49.11520851116973</v>
       </c>
       <c r="D25" t="n">
-        <v>49.11520851116966</v>
+        <v>49.11520851116973</v>
       </c>
       <c r="E25" t="n">
-        <v>49.11520851116966</v>
+        <v>49.11520851116973</v>
       </c>
       <c r="F25" t="n">
-        <v>49.11520851116966</v>
+        <v>49.11520851116973</v>
       </c>
       <c r="G25" t="n">
-        <v>49.11520851116966</v>
+        <v>49.11520851116973</v>
       </c>
       <c r="H25" t="n">
-        <v>49.11520851116966</v>
+        <v>49.11520851116973</v>
       </c>
       <c r="I25" t="n">
-        <v>49.11520851116966</v>
+        <v>49.11520851116973</v>
       </c>
       <c r="J25" t="n">
-        <v>49.11520851116966</v>
+        <v>49.11520851116973</v>
       </c>
       <c r="K25" t="n">
         <v>111.0089645894984</v>
       </c>
       <c r="L25" t="n">
-        <v>247.8169516993893</v>
+        <v>247.8169516993894</v>
       </c>
       <c r="M25" t="n">
-        <v>403.9792392649985</v>
+        <v>403.9792392649986</v>
       </c>
       <c r="N25" t="n">
         <v>559.6627941414318</v>
@@ -6166,31 +6166,31 @@
         <v>784.9611704969876</v>
       </c>
       <c r="Q25" t="n">
-        <v>784.9611704969876</v>
+        <v>767.2271113300186</v>
       </c>
       <c r="R25" t="n">
-        <v>784.9611704969876</v>
+        <v>767.2271113300186</v>
       </c>
       <c r="S25" t="n">
-        <v>575.5810020747929</v>
+        <v>730.7228059424399</v>
       </c>
       <c r="T25" t="n">
-        <v>516.3394191039275</v>
+        <v>671.4812229715742</v>
       </c>
       <c r="U25" t="n">
-        <v>402.0385937831182</v>
+        <v>557.1803976507646</v>
       </c>
       <c r="V25" t="n">
-        <v>314.1791523761571</v>
+        <v>469.3209562438032</v>
       </c>
       <c r="W25" t="n">
-        <v>200.8986139281725</v>
+        <v>183.1645547612023</v>
       </c>
       <c r="X25" t="n">
-        <v>142.5220128581645</v>
+        <v>124.787953691194</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.36271708505787</v>
+        <v>59.79471416093355</v>
       </c>
     </row>
     <row r="26">
@@ -6209,55 +6209,55 @@
         <v>1256.370625556996</v>
       </c>
       <c r="E26" t="n">
-        <v>964.9240079740573</v>
+        <v>964.9240079740574</v>
       </c>
       <c r="F26" t="n">
         <v>654.1119195951824</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9008849308091</v>
+        <v>341.900884930809</v>
       </c>
       <c r="H26" t="n">
-        <v>118.0908247527925</v>
+        <v>118.0908247527926</v>
       </c>
       <c r="I26" t="n">
-        <v>69.96501383862734</v>
+        <v>69.96501383862739</v>
       </c>
       <c r="J26" t="n">
-        <v>188.0354030236399</v>
+        <v>188.03540302364</v>
       </c>
       <c r="K26" t="n">
-        <v>590.9832740192817</v>
+        <v>598.5081818730439</v>
       </c>
       <c r="L26" t="n">
-        <v>1125.813625213074</v>
+        <v>1133.338533066836</v>
       </c>
       <c r="M26" t="n">
-        <v>1715.65128638035</v>
+        <v>1723.176194234113</v>
       </c>
       <c r="N26" t="n">
-        <v>2292.123449935059</v>
+        <v>2292.123449935061</v>
       </c>
       <c r="O26" t="n">
-        <v>2789.871093707549</v>
+        <v>2789.871093707551</v>
       </c>
       <c r="P26" t="n">
-        <v>3197.369984101234</v>
+        <v>3197.369984101236</v>
       </c>
       <c r="Q26" t="n">
-        <v>3451.70420526353</v>
+        <v>3451.704205263532</v>
       </c>
       <c r="R26" t="n">
-        <v>3498.250691931367</v>
+        <v>3498.250691931369</v>
       </c>
       <c r="S26" t="n">
-        <v>3426.981665960081</v>
+        <v>3426.981665960082</v>
       </c>
       <c r="T26" t="n">
-        <v>3308.38629849684</v>
+        <v>3308.386298496841</v>
       </c>
       <c r="U26" t="n">
-        <v>3156.884372487428</v>
+        <v>3156.884372487429</v>
       </c>
       <c r="V26" t="n">
         <v>2923.244200694324</v>
@@ -6266,7 +6266,7 @@
         <v>2664.04837286288</v>
       </c>
       <c r="X26" t="n">
-        <v>2385.357334695327</v>
+        <v>2385.357334695328</v>
       </c>
       <c r="Y26" t="n">
         <v>2095.15458158212</v>
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>935.9166759523397</v>
+        <v>935.9166759523399</v>
       </c>
       <c r="C27" t="n">
-        <v>774.2130031932944</v>
+        <v>774.2130031932946</v>
       </c>
       <c r="D27" t="n">
-        <v>635.3743661835065</v>
+        <v>635.3743661835067</v>
       </c>
       <c r="E27" t="n">
-        <v>488.3463562403778</v>
+        <v>488.3463562403779</v>
       </c>
       <c r="F27" t="n">
-        <v>353.6525581902521</v>
+        <v>353.6525581902522</v>
       </c>
       <c r="G27" t="n">
-        <v>225.2203938587254</v>
+        <v>225.2203938587255</v>
       </c>
       <c r="H27" t="n">
         <v>128.1445148734299</v>
       </c>
       <c r="I27" t="n">
-        <v>69.96501383862734</v>
+        <v>69.96501383862739</v>
       </c>
       <c r="J27" t="n">
         <v>157.659235577709</v>
       </c>
       <c r="K27" t="n">
-        <v>434.0492472557845</v>
+        <v>434.0492472557844</v>
       </c>
       <c r="L27" t="n">
-        <v>862.9332029626354</v>
+        <v>862.9332029626353</v>
       </c>
       <c r="M27" t="n">
         <v>1421.557065021639</v>
       </c>
       <c r="N27" t="n">
-        <v>2008.360941479431</v>
+        <v>1536.427052573219</v>
       </c>
       <c r="O27" t="n">
-        <v>2469.663615428642</v>
+        <v>1997.729726522429</v>
       </c>
       <c r="P27" t="n">
-        <v>2550.132531287377</v>
+        <v>2355.286673341776</v>
       </c>
       <c r="Q27" t="n">
         <v>2550.132531287377</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>436.3357879245855</v>
+        <v>436.3357879245856</v>
       </c>
       <c r="C28" t="n">
-        <v>370.0589206972204</v>
+        <v>370.0589206972205</v>
       </c>
       <c r="D28" t="n">
-        <v>320.3261298359378</v>
+        <v>320.3261298359379</v>
       </c>
       <c r="E28" t="n">
         <v>271.6562179082113</v>
@@ -6376,10 +6376,10 @@
         <v>157.1824567741144</v>
       </c>
       <c r="H28" t="n">
-        <v>103.3577522066939</v>
+        <v>103.357752206694</v>
       </c>
       <c r="I28" t="n">
-        <v>69.96501383862734</v>
+        <v>69.96501383862739</v>
       </c>
       <c r="J28" t="n">
         <v>129.6005898317335</v>
@@ -6388,7 +6388,7 @@
         <v>292.7770000850288</v>
       </c>
       <c r="L28" t="n">
-        <v>530.8676413698864</v>
+        <v>530.8676413698863</v>
       </c>
       <c r="M28" t="n">
         <v>788.3125831104621</v>
@@ -6406,28 +6406,28 @@
         <v>1557.043979652771</v>
       </c>
       <c r="R28" t="n">
-        <v>1522.031969740955</v>
+        <v>1522.031969740956</v>
       </c>
       <c r="S28" t="n">
-        <v>1415.990903629715</v>
+        <v>1415.990903629716</v>
       </c>
       <c r="T28" t="n">
-        <v>1287.212559935188</v>
+        <v>1287.212559935189</v>
       </c>
       <c r="U28" t="n">
         <v>1103.374973890718</v>
       </c>
       <c r="V28" t="n">
-        <v>945.978771760095</v>
+        <v>945.9787717600949</v>
       </c>
       <c r="W28" t="n">
-        <v>763.1614725884485</v>
+        <v>763.1614725884486</v>
       </c>
       <c r="X28" t="n">
-        <v>635.2481107947789</v>
+        <v>635.248110794779</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5520542980106</v>
+        <v>516.5520542980108</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1804.450144375054</v>
+        <v>1804.450144375056</v>
       </c>
       <c r="C29" t="n">
-        <v>1525.855488018816</v>
+        <v>1525.855488018819</v>
       </c>
       <c r="D29" t="n">
-        <v>1256.370625556996</v>
+        <v>1256.370625556997</v>
       </c>
       <c r="E29" t="n">
-        <v>964.9240079740576</v>
+        <v>964.9240079740583</v>
       </c>
       <c r="F29" t="n">
-        <v>654.1119195951826</v>
+        <v>654.1119195951833</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9008849308093</v>
+        <v>341.9008849308099</v>
       </c>
       <c r="H29" t="n">
         <v>118.0908247527925</v>
       </c>
       <c r="I29" t="n">
-        <v>69.96501383862734</v>
+        <v>69.9650138386274</v>
       </c>
       <c r="J29" t="n">
-        <v>289.3180571986066</v>
+        <v>289.3180571986067</v>
       </c>
       <c r="K29" t="n">
-        <v>692.2659281942483</v>
+        <v>699.7908360480105</v>
       </c>
       <c r="L29" t="n">
-        <v>1125.813625213074</v>
+        <v>1234.621187241803</v>
       </c>
       <c r="M29" t="n">
-        <v>1715.65128638035</v>
+        <v>1723.176194234113</v>
       </c>
       <c r="N29" t="n">
-        <v>2292.123449935059</v>
+        <v>2299.648357788822</v>
       </c>
       <c r="O29" t="n">
-        <v>2789.871093707549</v>
+        <v>2797.396001561312</v>
       </c>
       <c r="P29" t="n">
-        <v>3197.369984101234</v>
+        <v>3197.369984101237</v>
       </c>
       <c r="Q29" t="n">
-        <v>3451.70420526353</v>
+        <v>3451.704205263532</v>
       </c>
       <c r="R29" t="n">
-        <v>3498.250691931367</v>
+        <v>3498.25069193137</v>
       </c>
       <c r="S29" t="n">
-        <v>3426.98166596008</v>
+        <v>3426.981665960082</v>
       </c>
       <c r="T29" t="n">
-        <v>3308.38629849684</v>
+        <v>3308.386298496842</v>
       </c>
       <c r="U29" t="n">
-        <v>3156.884372487427</v>
+        <v>3156.884372487429</v>
       </c>
       <c r="V29" t="n">
-        <v>2923.244200694323</v>
+        <v>2923.244200694324</v>
       </c>
       <c r="W29" t="n">
-        <v>2664.048372862878</v>
+        <v>2664.04837286288</v>
       </c>
       <c r="X29" t="n">
-        <v>2385.357334695326</v>
+        <v>2385.357334695328</v>
       </c>
       <c r="Y29" t="n">
-        <v>2095.154581582119</v>
+        <v>2095.154581582121</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>935.9166759523397</v>
+        <v>935.9166759523399</v>
       </c>
       <c r="C30" t="n">
-        <v>774.2130031932944</v>
+        <v>774.2130031932946</v>
       </c>
       <c r="D30" t="n">
-        <v>635.3743661835065</v>
+        <v>635.3743661835067</v>
       </c>
       <c r="E30" t="n">
-        <v>488.3463562403778</v>
+        <v>488.3463562403779</v>
       </c>
       <c r="F30" t="n">
-        <v>353.6525581902521</v>
+        <v>353.6525581902522</v>
       </c>
       <c r="G30" t="n">
-        <v>225.2203938587254</v>
+        <v>225.2203938587255</v>
       </c>
       <c r="H30" t="n">
         <v>128.1445148734299</v>
       </c>
       <c r="I30" t="n">
-        <v>69.96501383862734</v>
+        <v>69.9650138386274</v>
       </c>
       <c r="J30" t="n">
         <v>157.659235577709</v>
@@ -6546,7 +6546,7 @@
         <v>434.0492472557845</v>
       </c>
       <c r="L30" t="n">
-        <v>862.9332029626354</v>
+        <v>862.9332029626355</v>
       </c>
       <c r="M30" t="n">
         <v>1421.557065021639</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>436.3357879245855</v>
+        <v>436.3357879245859</v>
       </c>
       <c r="C31" t="n">
-        <v>370.0589206972205</v>
+        <v>370.0589206972208</v>
       </c>
       <c r="D31" t="n">
-        <v>320.3261298359378</v>
+        <v>320.3261298359382</v>
       </c>
       <c r="E31" t="n">
-        <v>271.6562179082113</v>
+        <v>271.6562179082117</v>
       </c>
       <c r="F31" t="n">
-        <v>222.514665244943</v>
+        <v>222.5146652449434</v>
       </c>
       <c r="G31" t="n">
-        <v>157.1824567741144</v>
+        <v>157.1824567741147</v>
       </c>
       <c r="H31" t="n">
         <v>103.357752206694</v>
       </c>
       <c r="I31" t="n">
-        <v>69.96501383862734</v>
+        <v>69.9650138386274</v>
       </c>
       <c r="J31" t="n">
         <v>129.6005898317335</v>
       </c>
       <c r="K31" t="n">
-        <v>292.7770000850288</v>
+        <v>292.7770000850289</v>
       </c>
       <c r="L31" t="n">
-        <v>530.8676413698863</v>
+        <v>530.8676413698865</v>
       </c>
       <c r="M31" t="n">
-        <v>788.3125831104621</v>
+        <v>788.3125831104624</v>
       </c>
       <c r="N31" t="n">
         <v>1045.278792161862</v>
@@ -6640,7 +6640,7 @@
         <v>1473.142476867351</v>
       </c>
       <c r="Q31" t="n">
-        <v>1557.043979652771</v>
+        <v>1557.043979652772</v>
       </c>
       <c r="R31" t="n">
         <v>1522.031969740956</v>
@@ -6655,16 +6655,16 @@
         <v>1103.374973890718</v>
       </c>
       <c r="V31" t="n">
-        <v>945.9787717600949</v>
+        <v>945.9787717600954</v>
       </c>
       <c r="W31" t="n">
-        <v>763.1614725884486</v>
+        <v>763.161472588449</v>
       </c>
       <c r="X31" t="n">
-        <v>635.248110794779</v>
+        <v>635.2481107947794</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5520542980107</v>
+        <v>516.5520542980111</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1804.450144375057</v>
+        <v>1804.450144375056</v>
       </c>
       <c r="C32" t="n">
-        <v>1525.855488018819</v>
+        <v>1525.855488018818</v>
       </c>
       <c r="D32" t="n">
-        <v>1256.370625556998</v>
+        <v>1256.370625556996</v>
       </c>
       <c r="E32" t="n">
-        <v>964.9240079740589</v>
+        <v>964.924007974058</v>
       </c>
       <c r="F32" t="n">
-        <v>654.1119195951842</v>
+        <v>654.1119195951833</v>
       </c>
       <c r="G32" t="n">
-        <v>341.9008849308094</v>
+        <v>341.90088493081</v>
       </c>
       <c r="H32" t="n">
-        <v>118.0908247527925</v>
+        <v>118.0908247527926</v>
       </c>
       <c r="I32" t="n">
         <v>69.9650138386274</v>
       </c>
       <c r="J32" t="n">
-        <v>289.3180571986067</v>
+        <v>289.3180571986065</v>
       </c>
       <c r="K32" t="n">
-        <v>692.265928194251</v>
+        <v>699.7908360480104</v>
       </c>
       <c r="L32" t="n">
-        <v>1125.813625213077</v>
+        <v>1234.621187241803</v>
       </c>
       <c r="M32" t="n">
-        <v>1715.651286380353</v>
+        <v>1723.176194234112</v>
       </c>
       <c r="N32" t="n">
-        <v>2292.123449935062</v>
+        <v>2299.648357788821</v>
       </c>
       <c r="O32" t="n">
         <v>2789.871093707552</v>
@@ -6731,19 +6731,19 @@
         <v>3308.386298496841</v>
       </c>
       <c r="U32" t="n">
-        <v>3156.88437248743</v>
+        <v>3156.884372487429</v>
       </c>
       <c r="V32" t="n">
-        <v>2923.244200694326</v>
+        <v>2923.244200694325</v>
       </c>
       <c r="W32" t="n">
-        <v>2664.048372862881</v>
+        <v>2664.04837286288</v>
       </c>
       <c r="X32" t="n">
-        <v>2385.357334695329</v>
+        <v>2385.357334695328</v>
       </c>
       <c r="Y32" t="n">
-        <v>2095.154581582122</v>
+        <v>2095.15458158212</v>
       </c>
     </row>
     <row r="33">
@@ -6771,7 +6771,7 @@
         <v>225.2203938587255</v>
       </c>
       <c r="H33" t="n">
-        <v>128.1445148734299</v>
+        <v>128.14451487343</v>
       </c>
       <c r="I33" t="n">
         <v>69.9650138386274</v>
@@ -6780,22 +6780,22 @@
         <v>69.9650138386274</v>
       </c>
       <c r="K33" t="n">
-        <v>69.9650138386274</v>
+        <v>346.3550255167028</v>
       </c>
       <c r="L33" t="n">
-        <v>498.8489695454783</v>
+        <v>775.2389812235538</v>
       </c>
       <c r="M33" t="n">
-        <v>1057.472831604482</v>
+        <v>1333.862843282557</v>
       </c>
       <c r="N33" t="n">
-        <v>1644.276708062274</v>
+        <v>1536.427052573219</v>
       </c>
       <c r="O33" t="n">
-        <v>2105.579382011485</v>
+        <v>1997.729726522429</v>
       </c>
       <c r="P33" t="n">
-        <v>2463.136328830832</v>
+        <v>2355.286673341776</v>
       </c>
       <c r="Q33" t="n">
         <v>2550.132531287377</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>436.3357879245858</v>
+        <v>436.3357879245856</v>
       </c>
       <c r="C34" t="n">
-        <v>370.0589206972207</v>
+        <v>370.0589206972206</v>
       </c>
       <c r="D34" t="n">
-        <v>320.3261298359381</v>
+        <v>320.3261298359379</v>
       </c>
       <c r="E34" t="n">
-        <v>271.6562179082116</v>
+        <v>271.6562179082114</v>
       </c>
       <c r="F34" t="n">
-        <v>222.5146652449433</v>
+        <v>222.5146652449431</v>
       </c>
       <c r="G34" t="n">
-        <v>157.1824567741147</v>
+        <v>157.1824567741145</v>
       </c>
       <c r="H34" t="n">
         <v>103.357752206694</v>
@@ -6859,25 +6859,25 @@
         <v>129.6005898317335</v>
       </c>
       <c r="K34" t="n">
-        <v>292.7770000850285</v>
+        <v>292.7770000850288</v>
       </c>
       <c r="L34" t="n">
-        <v>530.8676413698861</v>
+        <v>530.8676413698863</v>
       </c>
       <c r="M34" t="n">
-        <v>788.3125831104619</v>
+        <v>788.3125831104621</v>
       </c>
       <c r="N34" t="n">
         <v>1045.278792161862</v>
       </c>
       <c r="O34" t="n">
-        <v>1279.441854057255</v>
+        <v>1279.441854057256</v>
       </c>
       <c r="P34" t="n">
         <v>1473.142476867351</v>
       </c>
       <c r="Q34" t="n">
-        <v>1557.043979652771</v>
+        <v>1557.043979652772</v>
       </c>
       <c r="R34" t="n">
         <v>1522.031969740956</v>
@@ -6898,10 +6898,10 @@
         <v>763.1614725884488</v>
       </c>
       <c r="X34" t="n">
-        <v>635.2481107947792</v>
+        <v>635.2481107947791</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5520542980109</v>
+        <v>516.5520542980108</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>1351.263976216599</v>
       </c>
       <c r="C35" t="n">
-        <v>1136.954487698205</v>
+        <v>1136.954487698206</v>
       </c>
       <c r="D35" t="n">
-        <v>931.7547930742282</v>
+        <v>931.7547930742287</v>
       </c>
       <c r="E35" t="n">
-        <v>704.5933433291345</v>
+        <v>704.5933433291351</v>
       </c>
       <c r="F35" t="n">
-        <v>458.0664227881044</v>
+        <v>458.0664227881048</v>
       </c>
       <c r="G35" t="n">
         <v>210.1405559615752</v>
@@ -6935,25 +6935,25 @@
         <v>50.61566362140307</v>
       </c>
       <c r="J35" t="n">
-        <v>50.61566362140307</v>
+        <v>168.6860528064156</v>
       </c>
       <c r="K35" t="n">
-        <v>359.8057882958404</v>
+        <v>477.8761774808528</v>
       </c>
       <c r="L35" t="n">
-        <v>793.3534853146659</v>
+        <v>911.4238744996784</v>
       </c>
       <c r="M35" t="n">
-        <v>1281.908492306976</v>
+        <v>1399.978881491988</v>
       </c>
       <c r="N35" t="n">
-        <v>1757.098001686718</v>
+        <v>1875.16839087173</v>
       </c>
       <c r="O35" t="n">
-        <v>2153.562991284241</v>
+        <v>2224.566944851435</v>
       </c>
       <c r="P35" t="n">
-        <v>2459.77922750296</v>
+        <v>2530.783181070154</v>
       </c>
       <c r="Q35" t="n">
         <v>2530.783181070154</v>
@@ -7014,25 +7014,25 @@
         <v>50.61566362140307</v>
       </c>
       <c r="J36" t="n">
-        <v>50.61566362140307</v>
+        <v>138.3098853604847</v>
       </c>
       <c r="K36" t="n">
-        <v>50.61566362140307</v>
+        <v>414.6998970385601</v>
       </c>
       <c r="L36" t="n">
-        <v>479.499619328254</v>
+        <v>843.5838527454109</v>
       </c>
       <c r="M36" t="n">
-        <v>1038.123481387257</v>
+        <v>1402.207714804414</v>
       </c>
       <c r="N36" t="n">
-        <v>1624.92735784505</v>
+        <v>1989.011591262207</v>
       </c>
       <c r="O36" t="n">
-        <v>2086.230031794261</v>
+        <v>2450.314265211417</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.786978613608</v>
+        <v>2530.783181070154</v>
       </c>
       <c r="Q36" t="n">
         <v>2530.783181070154</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>215.0467864936094</v>
+        <v>53.65440364390727</v>
       </c>
       <c r="C37" t="n">
         <v>51.66270425438697</v>
@@ -7099,46 +7099,46 @@
         <v>112.5094196997318</v>
       </c>
       <c r="L37" t="n">
-        <v>249.3174068096228</v>
+        <v>249.3174068096227</v>
       </c>
       <c r="M37" t="n">
-        <v>405.479694375232</v>
+        <v>405.4796943752319</v>
       </c>
       <c r="N37" t="n">
-        <v>561.1632492516653</v>
+        <v>561.1632492516652</v>
       </c>
       <c r="O37" t="n">
-        <v>694.0436569720921</v>
+        <v>694.0436569720919</v>
       </c>
       <c r="P37" t="n">
-        <v>786.4616256072212</v>
+        <v>786.461625607221</v>
       </c>
       <c r="Q37" t="n">
-        <v>786.4616256072212</v>
+        <v>786.461625607221</v>
       </c>
       <c r="R37" t="n">
-        <v>786.4616256072212</v>
+        <v>786.461625607221</v>
       </c>
       <c r="S37" t="n">
-        <v>744.705727333826</v>
+        <v>744.7057273338257</v>
       </c>
       <c r="T37" t="n">
-        <v>680.2125514771437</v>
+        <v>680.2125514771435</v>
       </c>
       <c r="U37" t="n">
-        <v>560.6601332705176</v>
+        <v>560.6601332705173</v>
       </c>
       <c r="V37" t="n">
-        <v>467.5490989777396</v>
+        <v>467.5490989777394</v>
       </c>
       <c r="W37" t="n">
-        <v>349.0169676439381</v>
+        <v>349.0169676439379</v>
       </c>
       <c r="X37" t="n">
-        <v>285.3887736881133</v>
+        <v>285.3887736881131</v>
       </c>
       <c r="Y37" t="n">
-        <v>230.9778850291898</v>
+        <v>69.58550217948769</v>
       </c>
     </row>
     <row r="38">
@@ -7157,13 +7157,13 @@
         <v>931.754793074228</v>
       </c>
       <c r="E38" t="n">
-        <v>704.5933433291343</v>
+        <v>704.5933433291342</v>
       </c>
       <c r="F38" t="n">
-        <v>458.0664227881041</v>
+        <v>458.0664227881039</v>
       </c>
       <c r="G38" t="n">
-        <v>210.1405559615753</v>
+        <v>210.1405559615752</v>
       </c>
       <c r="H38" t="n">
         <v>50.61566362140307</v>
@@ -7172,13 +7172,13 @@
         <v>50.61566362140307</v>
       </c>
       <c r="J38" t="n">
-        <v>50.61566362140307</v>
+        <v>168.6860528064156</v>
       </c>
       <c r="K38" t="n">
-        <v>277.7581748757054</v>
+        <v>477.8761774808528</v>
       </c>
       <c r="L38" t="n">
-        <v>711.305871894531</v>
+        <v>911.4238744996784</v>
       </c>
       <c r="M38" t="n">
         <v>1199.860878886841</v>
@@ -7205,7 +7205,7 @@
         <v>2469.489123311315</v>
       </c>
       <c r="U38" t="n">
-        <v>2382.272365139748</v>
+        <v>2382.272365139747</v>
       </c>
       <c r="V38" t="n">
         <v>2212.917361184488</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>916.5673257351156</v>
+        <v>916.5673257351161</v>
       </c>
       <c r="C39" t="n">
-        <v>754.8636529760703</v>
+        <v>754.8636529760709</v>
       </c>
       <c r="D39" t="n">
-        <v>616.0250159662824</v>
+        <v>616.0250159662829</v>
       </c>
       <c r="E39" t="n">
-        <v>468.9970060231535</v>
+        <v>468.9970060231541</v>
       </c>
       <c r="F39" t="n">
-        <v>334.3032079730278</v>
+        <v>334.3032079730285</v>
       </c>
       <c r="G39" t="n">
-        <v>205.8710436415011</v>
+        <v>205.8710436415018</v>
       </c>
       <c r="H39" t="n">
-        <v>108.7951646562056</v>
+        <v>108.7951646562063</v>
       </c>
       <c r="I39" t="n">
         <v>50.61566362140307</v>
@@ -7254,25 +7254,25 @@
         <v>138.3098853604847</v>
       </c>
       <c r="K39" t="n">
-        <v>414.6998970385602</v>
+        <v>414.6998970385601</v>
       </c>
       <c r="L39" t="n">
-        <v>843.5838527454111</v>
+        <v>832.9526377884096</v>
       </c>
       <c r="M39" t="n">
-        <v>1402.207714804415</v>
+        <v>1391.576499847413</v>
       </c>
       <c r="N39" t="n">
-        <v>1517.077702355994</v>
+        <v>1978.380376305206</v>
       </c>
       <c r="O39" t="n">
-        <v>1978.380376305205</v>
+        <v>1978.380376305206</v>
       </c>
       <c r="P39" t="n">
-        <v>2335.937323124552</v>
+        <v>2335.937323124553</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.783181070153</v>
+        <v>2530.783181070154</v>
       </c>
       <c r="R39" t="n">
         <v>2489.397716521638</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.65440364390744</v>
+        <v>53.65440364390738</v>
       </c>
       <c r="C40" t="n">
-        <v>51.66270425438705</v>
+        <v>51.66270425438702</v>
       </c>
       <c r="D40" t="n">
-        <v>51.66270425438705</v>
+        <v>51.66270425438702</v>
       </c>
       <c r="E40" t="n">
-        <v>51.66270425438705</v>
+        <v>51.66270425438702</v>
       </c>
       <c r="F40" t="n">
-        <v>51.66270425438705</v>
+        <v>51.66270425438702</v>
       </c>
       <c r="G40" t="n">
         <v>50.61566362140307</v>
@@ -7336,46 +7336,46 @@
         <v>112.5094196997318</v>
       </c>
       <c r="L40" t="n">
-        <v>249.3174068096228</v>
+        <v>249.3174068096227</v>
       </c>
       <c r="M40" t="n">
-        <v>405.479694375232</v>
+        <v>405.4796943752319</v>
       </c>
       <c r="N40" t="n">
-        <v>561.1632492516653</v>
+        <v>561.1632492516652</v>
       </c>
       <c r="O40" t="n">
-        <v>694.0436569720921</v>
+        <v>694.0436569720919</v>
       </c>
       <c r="P40" t="n">
-        <v>786.4616256072212</v>
+        <v>786.461625607221</v>
       </c>
       <c r="Q40" t="n">
-        <v>786.4616256072212</v>
+        <v>768.727566440252</v>
       </c>
       <c r="R40" t="n">
-        <v>786.4616256072212</v>
+        <v>768.727566440252</v>
       </c>
       <c r="S40" t="n">
-        <v>583.3133444841247</v>
+        <v>726.9716681668566</v>
       </c>
       <c r="T40" t="n">
-        <v>518.8201686274424</v>
+        <v>518.8201686274422</v>
       </c>
       <c r="U40" t="n">
-        <v>399.2677504208161</v>
+        <v>399.2677504208159</v>
       </c>
       <c r="V40" t="n">
-        <v>306.1567161280381</v>
+        <v>306.1567161280378</v>
       </c>
       <c r="W40" t="n">
-        <v>187.6245847942365</v>
+        <v>187.6245847942363</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9963908384115</v>
+        <v>123.9963908384114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.58550217948795</v>
+        <v>69.58550217948786</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1315.60189243336</v>
+        <v>1221.989120827162</v>
       </c>
       <c r="C41" t="n">
-        <v>1085.133046991287</v>
+        <v>991.5202753850897</v>
       </c>
       <c r="D41" t="n">
-        <v>863.7739954436303</v>
+        <v>770.1612238374332</v>
       </c>
       <c r="E41" t="n">
-        <v>620.4531887748569</v>
+        <v>526.84041716866</v>
       </c>
       <c r="F41" t="n">
-        <v>357.766911310147</v>
+        <v>264.1541397039505</v>
       </c>
       <c r="G41" t="n">
-        <v>93.68168755993825</v>
+        <v>226.2999128852547</v>
       </c>
       <c r="H41" t="n">
         <v>50.61566362140307</v>
@@ -7409,25 +7409,25 @@
         <v>50.61566362140307</v>
       </c>
       <c r="J41" t="n">
-        <v>50.61566362140307</v>
+        <v>168.6860528064156</v>
       </c>
       <c r="K41" t="n">
-        <v>359.8057882958404</v>
+        <v>477.8761774808528</v>
       </c>
       <c r="L41" t="n">
-        <v>793.3534853146659</v>
+        <v>864.3574388818604</v>
       </c>
       <c r="M41" t="n">
-        <v>1281.908492306976</v>
+        <v>1352.91244587417</v>
       </c>
       <c r="N41" t="n">
-        <v>1757.098001686718</v>
+        <v>1828.101955253912</v>
       </c>
       <c r="O41" t="n">
-        <v>2153.562991284241</v>
+        <v>2224.566944851435</v>
       </c>
       <c r="P41" t="n">
-        <v>2459.77922750296</v>
+        <v>2530.783181070154</v>
       </c>
       <c r="Q41" t="n">
         <v>2530.783181070154</v>
@@ -7436,25 +7436,25 @@
         <v>2530.783181070154</v>
       </c>
       <c r="S41" t="n">
-        <v>2530.783181070154</v>
+        <v>2507.639966013031</v>
       </c>
       <c r="T41" t="n">
-        <v>2530.783181070154</v>
+        <v>2437.170409463956</v>
       </c>
       <c r="U41" t="n">
-        <v>2427.407065974906</v>
+        <v>2333.794294368709</v>
       </c>
       <c r="V41" t="n">
-        <v>2241.892705095967</v>
+        <v>2148.27993348977</v>
       </c>
       <c r="W41" t="n">
-        <v>2030.822688178688</v>
+        <v>1937.209916572491</v>
       </c>
       <c r="X41" t="n">
-        <v>1800.257460925301</v>
+        <v>1706.644689319104</v>
       </c>
       <c r="Y41" t="n">
-        <v>1558.180518726259</v>
+        <v>1464.567747120062</v>
       </c>
     </row>
     <row r="42">
@@ -7476,10 +7476,10 @@
         <v>468.9970060231535</v>
       </c>
       <c r="F42" t="n">
-        <v>334.3032079730278</v>
+        <v>334.3032079730279</v>
       </c>
       <c r="G42" t="n">
-        <v>205.8710436415011</v>
+        <v>205.8710436415012</v>
       </c>
       <c r="H42" t="n">
         <v>108.7951646562056</v>
@@ -7488,19 +7488,19 @@
         <v>50.61566362140307</v>
       </c>
       <c r="J42" t="n">
-        <v>95.25995216112238</v>
+        <v>138.3098853604847</v>
       </c>
       <c r="K42" t="n">
-        <v>371.6499638391979</v>
+        <v>414.6998970385601</v>
       </c>
       <c r="L42" t="n">
-        <v>371.6499638391979</v>
+        <v>832.9526377884091</v>
       </c>
       <c r="M42" t="n">
-        <v>930.2738258982013</v>
+        <v>1391.576499847412</v>
       </c>
       <c r="N42" t="n">
-        <v>1517.077702355994</v>
+        <v>1978.380376305205</v>
       </c>
       <c r="O42" t="n">
         <v>1978.380376305205</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>94.8388338543038</v>
+        <v>94.83883385430346</v>
       </c>
       <c r="C43" t="n">
-        <v>76.68777754110386</v>
+        <v>76.68777754110357</v>
       </c>
       <c r="D43" t="n">
-        <v>75.08079759398636</v>
+        <v>75.08079759398613</v>
       </c>
       <c r="E43" t="n">
-        <v>74.53669658042497</v>
+        <v>74.5366965804248</v>
       </c>
       <c r="F43" t="n">
-        <v>73.52095483132186</v>
+        <v>73.52095483132175</v>
       </c>
       <c r="G43" t="n">
-        <v>56.31455727465833</v>
+        <v>56.31455727465827</v>
       </c>
       <c r="H43" t="n">
         <v>50.61566362140307</v>
@@ -7573,46 +7573,46 @@
         <v>112.5094196997318</v>
       </c>
       <c r="L43" t="n">
-        <v>249.3174068096228</v>
+        <v>249.3174068096227</v>
       </c>
       <c r="M43" t="n">
-        <v>405.479694375232</v>
+        <v>405.4796943752319</v>
       </c>
       <c r="N43" t="n">
-        <v>561.1632492516653</v>
+        <v>561.1632492516652</v>
       </c>
       <c r="O43" t="n">
-        <v>694.0436569720921</v>
+        <v>694.0436569720919</v>
       </c>
       <c r="P43" t="n">
-        <v>786.4616256072212</v>
+        <v>786.461625607221</v>
       </c>
       <c r="Q43" t="n">
-        <v>786.4616256072212</v>
+        <v>786.461625607221</v>
       </c>
       <c r="R43" t="n">
-        <v>795.5285283573528</v>
+        <v>795.528528357352</v>
       </c>
       <c r="S43" t="n">
-        <v>737.6132731602779</v>
+        <v>737.6132731602771</v>
       </c>
       <c r="T43" t="n">
-        <v>656.960740379916</v>
+        <v>656.9607403799153</v>
       </c>
       <c r="U43" t="n">
-        <v>521.2489652496103</v>
+        <v>521.2489652496096</v>
       </c>
       <c r="V43" t="n">
-        <v>411.9785740331526</v>
+        <v>411.978574033152</v>
       </c>
       <c r="W43" t="n">
-        <v>277.2870857756715</v>
+        <v>277.287085775671</v>
       </c>
       <c r="X43" t="n">
-        <v>197.499534896167</v>
+        <v>197.4995348961666</v>
       </c>
       <c r="Y43" t="n">
-        <v>126.9292893135639</v>
+        <v>126.9292893135635</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7625,16 @@
         <v>1221.989120827162</v>
       </c>
       <c r="C44" t="n">
-        <v>1217.751272316603</v>
+        <v>991.5202753850895</v>
       </c>
       <c r="D44" t="n">
-        <v>996.3922207689466</v>
+        <v>770.1612238374328</v>
       </c>
       <c r="E44" t="n">
-        <v>753.0714141001731</v>
+        <v>526.8404171686593</v>
       </c>
       <c r="F44" t="n">
-        <v>490.3851366354633</v>
+        <v>264.1541397039496</v>
       </c>
       <c r="G44" t="n">
         <v>226.2999128852548</v>
@@ -7646,25 +7646,25 @@
         <v>50.61566362140307</v>
       </c>
       <c r="J44" t="n">
-        <v>121.619617188597</v>
+        <v>168.6860528064156</v>
       </c>
       <c r="K44" t="n">
-        <v>430.8097418630343</v>
+        <v>477.8761774808528</v>
       </c>
       <c r="L44" t="n">
-        <v>864.3574388818599</v>
+        <v>911.4238744996784</v>
       </c>
       <c r="M44" t="n">
-        <v>1352.91244587417</v>
+        <v>1399.978881491988</v>
       </c>
       <c r="N44" t="n">
-        <v>1828.101955253912</v>
+        <v>1675.050388266583</v>
       </c>
       <c r="O44" t="n">
-        <v>2224.566944851435</v>
+        <v>2071.515377864107</v>
       </c>
       <c r="P44" t="n">
-        <v>2530.783181070154</v>
+        <v>2377.731614082825</v>
       </c>
       <c r="Q44" t="n">
         <v>2530.783181070154</v>
@@ -7685,13 +7685,13 @@
         <v>2148.27993348977</v>
       </c>
       <c r="W44" t="n">
-        <v>1937.20991657249</v>
+        <v>1937.209916572491</v>
       </c>
       <c r="X44" t="n">
-        <v>1706.644689319103</v>
+        <v>1706.644689319104</v>
       </c>
       <c r="Y44" t="n">
-        <v>1464.567747120061</v>
+        <v>1464.567747120062</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>916.5673257351158</v>
+        <v>916.5673257351156</v>
       </c>
       <c r="C45" t="n">
-        <v>754.8636529760706</v>
+        <v>754.8636529760703</v>
       </c>
       <c r="D45" t="n">
-        <v>616.0250159662826</v>
+        <v>616.0250159662824</v>
       </c>
       <c r="E45" t="n">
-        <v>468.9970060231537</v>
+        <v>468.9970060231535</v>
       </c>
       <c r="F45" t="n">
-        <v>334.3032079730281</v>
+        <v>334.3032079730279</v>
       </c>
       <c r="G45" t="n">
-        <v>205.8710436415013</v>
+        <v>205.8710436415012</v>
       </c>
       <c r="H45" t="n">
         <v>108.7951646562056</v>
@@ -7725,28 +7725,28 @@
         <v>50.61566362140307</v>
       </c>
       <c r="J45" t="n">
-        <v>138.3098853604847</v>
+        <v>95.25995216112312</v>
       </c>
       <c r="K45" t="n">
-        <v>414.6998970385602</v>
+        <v>371.6499638391986</v>
       </c>
       <c r="L45" t="n">
-        <v>414.6998970385602</v>
+        <v>371.6499638391986</v>
       </c>
       <c r="M45" t="n">
-        <v>973.3237590975637</v>
+        <v>930.2738258982018</v>
       </c>
       <c r="N45" t="n">
-        <v>1560.127635555356</v>
+        <v>1517.077702355994</v>
       </c>
       <c r="O45" t="n">
-        <v>2021.430309504567</v>
+        <v>1978.380376305205</v>
       </c>
       <c r="P45" t="n">
-        <v>2378.987256323914</v>
+        <v>2335.937323124552</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.783181070154</v>
+        <v>2530.783181070153</v>
       </c>
       <c r="R45" t="n">
         <v>2489.397716521638</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>94.8388338543038</v>
+        <v>94.83883385430363</v>
       </c>
       <c r="C46" t="n">
-        <v>76.68777754110386</v>
+        <v>76.68777754110371</v>
       </c>
       <c r="D46" t="n">
-        <v>75.08079759398636</v>
+        <v>75.08079759398625</v>
       </c>
       <c r="E46" t="n">
-        <v>74.53669658042497</v>
+        <v>74.53669658042489</v>
       </c>
       <c r="F46" t="n">
-        <v>73.52095483132186</v>
+        <v>73.5209548313218</v>
       </c>
       <c r="G46" t="n">
-        <v>56.31455727465833</v>
+        <v>56.3145572746583</v>
       </c>
       <c r="H46" t="n">
         <v>50.61566362140307</v>
@@ -7807,49 +7807,49 @@
         <v>50.61566362140307</v>
       </c>
       <c r="K46" t="n">
-        <v>112.5094196997318</v>
+        <v>121.5763224498633</v>
       </c>
       <c r="L46" t="n">
-        <v>249.3174068096228</v>
+        <v>258.3843095597542</v>
       </c>
       <c r="M46" t="n">
-        <v>405.479694375232</v>
+        <v>414.5465971253634</v>
       </c>
       <c r="N46" t="n">
-        <v>561.1632492516653</v>
+        <v>570.2301520017967</v>
       </c>
       <c r="O46" t="n">
-        <v>694.0436569720921</v>
+        <v>703.1105597222233</v>
       </c>
       <c r="P46" t="n">
-        <v>786.4616256072212</v>
+        <v>795.5285283573525</v>
       </c>
       <c r="Q46" t="n">
-        <v>786.4616256072212</v>
+        <v>795.5285283573525</v>
       </c>
       <c r="R46" t="n">
-        <v>795.5285283573528</v>
+        <v>795.5285283573525</v>
       </c>
       <c r="S46" t="n">
-        <v>737.6132731602779</v>
+        <v>737.6132731602776</v>
       </c>
       <c r="T46" t="n">
-        <v>656.960740379916</v>
+        <v>656.9607403799157</v>
       </c>
       <c r="U46" t="n">
-        <v>521.2489652496103</v>
+        <v>521.2489652496099</v>
       </c>
       <c r="V46" t="n">
-        <v>411.9785740331526</v>
+        <v>411.9785740331523</v>
       </c>
       <c r="W46" t="n">
-        <v>277.2870857756715</v>
+        <v>277.2870857756712</v>
       </c>
       <c r="X46" t="n">
-        <v>197.499534896167</v>
+        <v>197.4995348961668</v>
       </c>
       <c r="Y46" t="n">
-        <v>126.9292893135639</v>
+        <v>126.9292893135637</v>
       </c>
     </row>
   </sheetData>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279321</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K8" t="n">
         <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
-        <v>191.560212163114</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
-        <v>187.1563144971574</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
         <v>186.3981141722301</v>
@@ -8471,7 +8471,7 @@
         <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>180.6233730229897</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8532,7 +8532,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666661</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
         <v>112.5754335711478</v>
@@ -8547,10 +8547,10 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241428</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448919</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8620,13 +8620,13 @@
         <v>112.8771994574291</v>
       </c>
       <c r="N10" t="n">
-        <v>103.7445048780014</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O10" t="n">
-        <v>112.4959374921217</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P10" t="n">
-        <v>111.9040032899319</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q10" t="n">
         <v>84.9458458910769</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>100.5625803448954</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
@@ -8696,10 +8696,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>584.3675935406823</v>
+        <v>427.2262664481887</v>
       </c>
       <c r="N11" t="n">
-        <v>292.1466552642852</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O11" t="n">
         <v>495.0402356415689</v>
@@ -8766,10 +8766,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>75.33832398386323</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>154.0075934817067</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8778,16 +8778,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>357.573258744636</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>52.83296608106281</v>
       </c>
       <c r="Q12" t="n">
-        <v>76.2864761317542</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8942,10 +8942,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
-        <v>296.5315165630761</v>
+        <v>141.9339741516328</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.4119454464328</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>75.33832398386321</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9012,10 +9012,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>605.4165828749999</v>
+        <v>143.0307570481665</v>
       </c>
       <c r="N15" t="n">
-        <v>72.17923886111802</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9170,10 +9170,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>307.9632470693877</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
-        <v>568.5510017355793</v>
+        <v>292.1466552642846</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
@@ -9249,10 +9249,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>54.45073508949835</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>72.17923886111778</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>100.5625803448954</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
@@ -9407,7 +9407,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>584.3675935406823</v>
+        <v>307.9632470693875</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
@@ -9416,10 +9416,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
-        <v>415.7945359418767</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.4119454464328</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9486,10 +9486,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>54.45073508949821</v>
       </c>
       <c r="N21" t="n">
-        <v>72.17923886111802</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>100.5625803448954</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
@@ -9647,16 +9647,16 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N23" t="n">
-        <v>568.5510017355793</v>
+        <v>292.1466552642855</v>
       </c>
       <c r="O23" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
-        <v>415.7945359418739</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>121.4119454464328</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>72.17923886111527</v>
+        <v>72.17923886111848</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9963,16 +9963,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>146.4441887615562</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>134.1146992717044</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>76.28647613175414</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>146.4441887615557</v>
+        <v>146.4441887615554</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10425,10 +10425,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>75.33832398386318</v>
+        <v>75.33832398386321</v>
       </c>
       <c r="K33" t="n">
-        <v>64.62297813849821</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>235.0242107202243</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10446,7 +10446,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>164.1614281080625</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>100.5625803448953</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10598,13 +10598,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O35" t="n">
-        <v>495.0402356415689</v>
+        <v>447.4983814821564</v>
       </c>
       <c r="P35" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>193.1331106658207</v>
+        <v>121.4119454464328</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,10 +10662,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>75.33832398386318</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>64.62297813849821</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10680,10 +10680,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>134.1146992717054</v>
       </c>
       <c r="Q36" t="n">
-        <v>164.1614281080629</v>
+        <v>76.28647613175417</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>100.5625803448953</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>338.5126591504587</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>584.3675935406823</v>
+        <v>382.2281969698267</v>
       </c>
       <c r="N38" t="n">
         <v>568.5510017355793</v>
@@ -10905,16 +10905,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>482.0924488944969</v>
+        <v>471.3538479278288</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>146.4441887615557</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>46.05871814135386</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>100.5625803448953</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
-        <v>542.9595789155856</v>
+        <v>495.4177247561734</v>
       </c>
       <c r="M41" t="n">
         <v>584.3675935406823</v>
@@ -11078,7 +11078,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>193.1331106658207</v>
+        <v>121.4119454464328</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11136,13 +11136,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>120.4335649330746</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>48.87633201888987</v>
+        <v>471.3538479278283</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11151,7 +11151,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>46.05871814135386</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>172.2837455642832</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11306,7 +11306,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>568.5510017355793</v>
+        <v>366.4116051647237</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
@@ -11315,7 +11315,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.4119454464328</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11373,13 +11373,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>120.4335649330754</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>48.87633201888987</v>
+        <v>48.87633201888992</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>229.6156930471476</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23030,10 +23030,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293193</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94294668035445</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>287.7973928349938</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>192.2310211338958</v>
       </c>
       <c r="D11" t="n">
-        <v>266.7900138372036</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>288.5321514071092</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>309.0889243177297</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>221.5719595762367</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>168.304498355665</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>275.8087097926756</v>
       </c>
       <c r="D14" t="n">
-        <v>266.7900138372036</v>
+        <v>124.7659404693205</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>221.5719595762367</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>47.64455280502352</v>
+        <v>47.64455280502351</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.82675391406056</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>149.9869067493185</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>256.6038695531299</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>275.9041277858765</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>287.3007255820752</v>
       </c>
     </row>
     <row r="15">
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-2.391686848568497e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -25640,10 +25640,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>223.9686869621974</v>
       </c>
       <c r="H41" t="n">
-        <v>131.2920430720634</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>22.91178290655103</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>69.76486098358461</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>223.9686869621989</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>223.9686869621978</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>670687.6225982192</v>
+        <v>670687.6225982194</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>711792.4374750926</v>
+        <v>711792.4374750928</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>774187.1875165661</v>
+        <v>774187.1875165659</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>774187.187516566</v>
+        <v>774187.1875165659</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>774187.1875165659</v>
+        <v>774187.187516566</v>
       </c>
     </row>
     <row r="10">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>764221.1968702058</v>
+        <v>764221.1968702059</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26314,46 @@
         <v>746729.7157196217</v>
       </c>
       <c r="C2" t="n">
-        <v>746729.7157196215</v>
+        <v>746729.7157196219</v>
       </c>
       <c r="D2" t="n">
-        <v>746729.7157196214</v>
+        <v>746729.7157196216</v>
       </c>
       <c r="E2" t="n">
-        <v>669936.8379619091</v>
+        <v>669936.8379619094</v>
       </c>
       <c r="F2" t="n">
-        <v>669936.8379619102</v>
+        <v>669936.8379619099</v>
       </c>
       <c r="G2" t="n">
-        <v>748433.4589818275</v>
+        <v>748433.4589818266</v>
       </c>
       <c r="H2" t="n">
-        <v>748433.4589818275</v>
+        <v>748433.4589818266</v>
       </c>
       <c r="I2" t="n">
-        <v>748433.4589818276</v>
+        <v>748433.4589818266</v>
       </c>
       <c r="J2" t="n">
+        <v>748433.4589818283</v>
+      </c>
+      <c r="K2" t="n">
+        <v>748433.4589818282</v>
+      </c>
+      <c r="L2" t="n">
         <v>748433.4589818281</v>
-      </c>
-      <c r="K2" t="n">
-        <v>748433.4589818281</v>
-      </c>
-      <c r="L2" t="n">
-        <v>748433.4589818282</v>
       </c>
       <c r="M2" t="n">
         <v>748433.4589818273</v>
       </c>
       <c r="N2" t="n">
-        <v>748433.4589818274</v>
+        <v>748433.4589818276</v>
       </c>
       <c r="O2" t="n">
-        <v>731051.2491866897</v>
+        <v>731051.2491866901</v>
       </c>
       <c r="P2" t="n">
-        <v>731051.24918669</v>
+        <v>731051.2491866898</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>374731.6252655623</v>
+        <v>374731.6252655622</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>55073.11449314002</v>
+        <v>55073.11449313985</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94961.78535085281</v>
+        <v>94961.78535085286</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>55073.11449314002</v>
+        <v>55073.11449313984</v>
       </c>
       <c r="M3" t="n">
-        <v>143635.9898061278</v>
+        <v>143635.9898061276</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>13973.24385358186</v>
+        <v>13973.24385358205</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>410681.9044354911</v>
       </c>
       <c r="D4" t="n">
-        <v>410681.9044354912</v>
+        <v>410681.9044354911</v>
       </c>
       <c r="E4" t="n">
         <v>287406.0524309461</v>
@@ -26430,34 +26430,34 @@
         <v>287406.0524309461</v>
       </c>
       <c r="G4" t="n">
-        <v>333123.9704994475</v>
+        <v>333123.9704994474</v>
       </c>
       <c r="H4" t="n">
-        <v>333123.9704994475</v>
+        <v>333123.9704994473</v>
       </c>
       <c r="I4" t="n">
         <v>333123.9704994474</v>
       </c>
       <c r="J4" t="n">
-        <v>330788.7272863729</v>
+        <v>330788.727286373</v>
       </c>
       <c r="K4" t="n">
-        <v>330788.7272863729</v>
+        <v>330788.727286373</v>
       </c>
       <c r="L4" t="n">
         <v>330788.727286373</v>
       </c>
       <c r="M4" t="n">
-        <v>331919.7736263728</v>
+        <v>331919.7736263727</v>
       </c>
       <c r="N4" t="n">
         <v>331919.7736263727</v>
       </c>
       <c r="O4" t="n">
-        <v>321747.0173034809</v>
+        <v>321747.017303481</v>
       </c>
       <c r="P4" t="n">
-        <v>321747.0173034809</v>
+        <v>321747.017303481</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.59999999996</v>
+        <v>33627.6</v>
       </c>
       <c r="E5" t="n">
         <v>48901.65119150548</v>
@@ -26482,22 +26482,22 @@
         <v>48901.65119150549</v>
       </c>
       <c r="G5" t="n">
-        <v>54689.07826941022</v>
+        <v>54689.0782694102</v>
       </c>
       <c r="H5" t="n">
-        <v>54689.07826941022</v>
+        <v>54689.07826941019</v>
       </c>
       <c r="I5" t="n">
-        <v>54689.07826941018</v>
+        <v>54689.07826941021</v>
       </c>
       <c r="J5" t="n">
-        <v>64747.50324037329</v>
+        <v>64747.50324037332</v>
       </c>
       <c r="K5" t="n">
-        <v>64747.50324037329</v>
+        <v>64747.50324037333</v>
       </c>
       <c r="L5" t="n">
-        <v>64747.50324037333</v>
+        <v>64747.50324037332</v>
       </c>
       <c r="M5" t="n">
         <v>55392.34295249302</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>302420.2112841307</v>
+        <v>302415.8427116635</v>
       </c>
       <c r="C6" t="n">
-        <v>302420.2112841304</v>
+        <v>302415.8427116636</v>
       </c>
       <c r="D6" t="n">
-        <v>302420.2112841305</v>
+        <v>302415.8427116634</v>
       </c>
       <c r="E6" t="n">
-        <v>-41102.49092610482</v>
+        <v>-41303.76431333498</v>
       </c>
       <c r="F6" t="n">
-        <v>333629.1343394585</v>
+        <v>333427.8609522278</v>
       </c>
       <c r="G6" t="n">
-        <v>305547.2957198297</v>
+        <v>305547.2957198291</v>
       </c>
       <c r="H6" t="n">
-        <v>360620.4102129697</v>
+        <v>360620.4102129691</v>
       </c>
       <c r="I6" t="n">
-        <v>360620.4102129702</v>
+        <v>360620.4102129689</v>
       </c>
       <c r="J6" t="n">
         <v>257935.4431042291</v>
       </c>
       <c r="K6" t="n">
-        <v>352897.2284550819</v>
+        <v>352897.2284550818</v>
       </c>
       <c r="L6" t="n">
-        <v>297824.1139619418</v>
+        <v>297824.1139619419</v>
       </c>
       <c r="M6" t="n">
-        <v>217485.3525968336</v>
+        <v>217485.3525968339</v>
       </c>
       <c r="N6" t="n">
-        <v>361121.3424029617</v>
+        <v>361121.3424029619</v>
       </c>
       <c r="O6" t="n">
-        <v>341283.5610445787</v>
+        <v>341238.9912758732</v>
       </c>
       <c r="P6" t="n">
-        <v>355256.8048981607</v>
+        <v>355212.235129455</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>102.3057112878451</v>
       </c>
       <c r="G2" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042699</v>
       </c>
       <c r="H2" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="I2" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="J2" t="n">
         <v>102.3057112878451</v>
@@ -26759,25 +26759,25 @@
         <v>136.3923798513147</v>
       </c>
       <c r="J3" t="n">
-        <v>136.3923798513148</v>
+        <v>136.3923798513147</v>
       </c>
       <c r="K3" t="n">
         <v>136.3923798513148</v>
       </c>
       <c r="L3" t="n">
-        <v>136.3923798513148</v>
+        <v>136.3923798513147</v>
       </c>
       <c r="M3" t="n">
-        <v>136.3923798513148</v>
+        <v>136.3923798513147</v>
       </c>
       <c r="N3" t="n">
-        <v>136.3923798513148</v>
+        <v>136.3923798513147</v>
       </c>
       <c r="O3" t="n">
-        <v>136.3923798513148</v>
+        <v>136.3923798513147</v>
       </c>
       <c r="P3" t="n">
-        <v>136.3923798513148</v>
+        <v>136.3923798513147</v>
       </c>
     </row>
     <row r="4">
@@ -26808,13 +26808,13 @@
         <v>613.9401063896214</v>
       </c>
       <c r="I4" t="n">
-        <v>613.9401063896207</v>
+        <v>613.9401063896216</v>
       </c>
       <c r="J4" t="n">
-        <v>874.5626729828418</v>
+        <v>874.5626729828423</v>
       </c>
       <c r="K4" t="n">
-        <v>874.5626729828418</v>
+        <v>874.5626729828424</v>
       </c>
       <c r="L4" t="n">
         <v>874.5626729828424</v>
@@ -26917,10 +26917,10 @@
         <v>102.3057112878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>68.84139311642502</v>
+        <v>68.84139311642481</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>33.46431817142008</v>
+        <v>33.46431817142029</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>68.84139311642502</v>
+        <v>68.8413931164248</v>
       </c>
       <c r="M2" t="n">
-        <v>63.64231615946632</v>
+        <v>63.64231615946628</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>17.46655481697732</v>
+        <v>17.46655481697756</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>613.940106389622</v>
+        <v>613.9401063896214</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.6225665932211</v>
+        <v>260.6225665932207</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>372.073228674318</v>
+        <v>372.0732286743174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>102.3057112878451</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>68.84139311642502</v>
+        <v>68.84139311642481</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>33.46431817142008</v>
+        <v>33.46431817142029</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>613.940106389622</v>
+        <v>613.9401063896214</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910743</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159501</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600424</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173888</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
@@ -27989,10 +27989,10 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261499</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790236</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -28011,16 +28011,16 @@
         <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429387</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405155</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962949</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244812</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
         <v>167.2305511458285</v>
@@ -28172,13 +28172,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>72.78707739741999</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>15.18937137296543</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>57.59770602445452</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.28905808800912</v>
+        <v>55.28905808800911</v>
       </c>
       <c r="S14" t="n">
         <v>102.3057112878451</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>15.18937137296538</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -28421,10 +28421,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>72.78707739741992</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>57.59770602445451</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>102.3057112878451</v>
       </c>
       <c r="K16" t="n">
-        <v>102.3057112878454</v>
+        <v>102.3057112878451</v>
       </c>
       <c r="L16" t="n">
         <v>102.3057112878451</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042699</v>
       </c>
       <c r="C17" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042699</v>
       </c>
       <c r="D17" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042699</v>
       </c>
       <c r="E17" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042699</v>
       </c>
       <c r="F17" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042699</v>
       </c>
       <c r="G17" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042699</v>
       </c>
       <c r="H17" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042699</v>
       </c>
       <c r="I17" t="n">
         <v>149.9502640928686</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.28905808800912</v>
+        <v>55.28905808800911</v>
       </c>
       <c r="S17" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042699</v>
       </c>
       <c r="T17" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042699</v>
       </c>
       <c r="U17" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042699</v>
       </c>
       <c r="V17" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042699</v>
       </c>
       <c r="W17" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042699</v>
       </c>
       <c r="X17" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042699</v>
       </c>
       <c r="Y17" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042699</v>
       </c>
     </row>
     <row r="18">
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.1471044042701</v>
+        <v>155.4715000846873</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.55671857529934</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>136.9676011005426</v>
       </c>
       <c r="S19" t="n">
-        <v>171.1471044042701</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042699</v>
       </c>
       <c r="U19" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042699</v>
       </c>
       <c r="V19" t="n">
-        <v>137.9147815093868</v>
+        <v>171.1471044042699</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>171.1471044042699</v>
       </c>
       <c r="X19" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042699</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042699</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="C20" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="D20" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="E20" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="F20" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="G20" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="H20" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="I20" t="n">
         <v>149.9502640928686</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.28905808800912</v>
+        <v>55.28905808800911</v>
       </c>
       <c r="S20" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="T20" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="U20" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="V20" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="W20" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="X20" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="Y20" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
     </row>
     <row r="21">
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>15.18937137296538</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>57.59770602445451</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>40.97160990302997</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>31.81546749438982</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -29007,25 +29007,25 @@
         <v>136.9676011005426</v>
       </c>
       <c r="S22" t="n">
-        <v>171.1471044042701</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>137.9147815093883</v>
       </c>
       <c r="V22" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="W22" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="X22" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="Y22" t="n">
-        <v>137.9147815093868</v>
+        <v>171.1471044042698</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="C23" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="D23" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="E23" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="F23" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="G23" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="H23" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="I23" t="n">
         <v>149.9502640928686</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.28905808800912</v>
+        <v>55.28905808800911</v>
       </c>
       <c r="S23" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="T23" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="U23" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="V23" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="W23" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="X23" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="Y23" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
     </row>
     <row r="24">
@@ -29126,7 +29126,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>15.18937137296808</v>
+        <v>15.18937137296459</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>137.9147815093867</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.55671857529934</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>136.9676011005426</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="T25" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="U25" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="V25" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="W25" t="n">
-        <v>171.1471044042701</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>171.1471044042701</v>
+        <v>171.1471044042698</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.1471044042701</v>
+        <v>155.4715000846878</v>
       </c>
     </row>
     <row r="26">
@@ -29299,7 +29299,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>94.70479426384293</v>
+        <v>102.3057112878451</v>
       </c>
       <c r="L26" t="n">
         <v>102.3057112878451</v>
@@ -29308,7 +29308,7 @@
         <v>102.3057112878451</v>
       </c>
       <c r="N26" t="n">
-        <v>102.3057112878451</v>
+        <v>94.70479426384509</v>
       </c>
       <c r="O26" t="n">
         <v>102.3057112878451</v>
@@ -29536,13 +29536,13 @@
         <v>102.3057112878451</v>
       </c>
       <c r="K29" t="n">
-        <v>94.70479426384287</v>
+        <v>102.3057112878451</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>102.3057112878451</v>
       </c>
       <c r="M29" t="n">
-        <v>102.3057112878451</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>102.3057112878451</v>
@@ -29551,7 +29551,7 @@
         <v>102.3057112878451</v>
       </c>
       <c r="P29" t="n">
-        <v>102.3057112878451</v>
+        <v>94.70479426384532</v>
       </c>
       <c r="Q29" t="n">
         <v>102.3057112878451</v>
@@ -29709,7 +29709,7 @@
         <v>102.3057112878451</v>
       </c>
       <c r="P31" t="n">
-        <v>102.3057112878447</v>
+        <v>102.3057112878451</v>
       </c>
       <c r="Q31" t="n">
         <v>102.3057112878451</v>
@@ -29773,19 +29773,19 @@
         <v>102.3057112878451</v>
       </c>
       <c r="K32" t="n">
-        <v>94.70479426384554</v>
+        <v>102.3057112878451</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>102.3057112878451</v>
       </c>
       <c r="M32" t="n">
-        <v>102.3057112878451</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>102.3057112878451</v>
       </c>
       <c r="O32" t="n">
-        <v>102.3057112878451</v>
+        <v>94.70479426384566</v>
       </c>
       <c r="P32" t="n">
         <v>102.3057112878451</v>
@@ -29943,7 +29943,7 @@
         <v>102.3057112878451</v>
       </c>
       <c r="O34" t="n">
-        <v>102.3057112878451</v>
+        <v>102.3057112878454</v>
       </c>
       <c r="P34" t="n">
         <v>102.3057112878451</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.28905808800909</v>
+        <v>55.28905808800912</v>
       </c>
       <c r="S35" t="n">
         <v>165.9480274473114</v>
@@ -30144,7 +30144,7 @@
         <v>165.9480274473114</v>
       </c>
       <c r="C37" t="n">
-        <v>6.169568426106338</v>
+        <v>165.9480274473114</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30165,7 +30165,7 @@
         <v>135.3645222722311</v>
       </c>
       <c r="J37" t="n">
-        <v>42.06775573925302</v>
+        <v>42.06775573925303</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.55671857529932</v>
+        <v>17.55671857529934</v>
       </c>
       <c r="R37" t="n">
         <v>136.9676011005426</v>
@@ -30210,7 +30210,7 @@
         <v>165.9480274473114</v>
       </c>
       <c r="Y37" t="n">
-        <v>165.9480274473114</v>
+        <v>6.169568426106565</v>
       </c>
     </row>
     <row r="38">
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.28905808800909</v>
+        <v>55.28905808800912</v>
       </c>
       <c r="S38" t="n">
         <v>165.9480274473113</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>-6.323830348264892e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>135.3645222722311</v>
       </c>
       <c r="J40" t="n">
-        <v>42.06775573925302</v>
+        <v>42.06775573925303</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,16 +30423,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.55671857529932</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>136.9676011005426</v>
       </c>
       <c r="S40" t="n">
-        <v>6.169568426107247</v>
+        <v>165.9480274473113</v>
       </c>
       <c r="T40" t="n">
-        <v>165.9480274473113</v>
+        <v>23.72628700140655</v>
       </c>
       <c r="U40" t="n">
         <v>165.9480274473113</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.28905808800909</v>
+        <v>55.28905808800912</v>
       </c>
       <c r="S41" t="n">
         <v>149.9502640928686</v>
@@ -30639,7 +30639,7 @@
         <v>135.3645222722311</v>
       </c>
       <c r="J43" t="n">
-        <v>42.06775573925302</v>
+        <v>42.06775573925303</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,10 +30660,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.55671857529932</v>
+        <v>17.55671857529934</v>
       </c>
       <c r="R43" t="n">
-        <v>146.1260887269381</v>
+        <v>146.1260887269375</v>
       </c>
       <c r="S43" t="n">
         <v>149.9502640928686</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.28905808800909</v>
+        <v>55.28905808800912</v>
       </c>
       <c r="S44" t="n">
         <v>149.9502640928686</v>
@@ -30876,10 +30876,10 @@
         <v>135.3645222722311</v>
       </c>
       <c r="J46" t="n">
-        <v>42.06775573925302</v>
+        <v>42.06775573925303</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>9.158487626395427</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30897,10 +30897,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.55671857529932</v>
+        <v>17.55671857529934</v>
       </c>
       <c r="R46" t="n">
-        <v>146.1260887269381</v>
+        <v>136.9676011005426</v>
       </c>
       <c r="S46" t="n">
         <v>149.9502640928686</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5483110747791541</v>
+        <v>0.5483110747791542</v>
       </c>
       <c r="H14" t="n">
-        <v>5.615390794582013</v>
+        <v>5.615390794582014</v>
       </c>
       <c r="I14" t="n">
         <v>21.13876271042336</v>
       </c>
       <c r="J14" t="n">
-        <v>46.53721708303727</v>
+        <v>46.53721708303728</v>
       </c>
       <c r="K14" t="n">
-        <v>69.74722487843887</v>
+        <v>69.74722487843889</v>
       </c>
       <c r="L14" t="n">
-        <v>86.52759993321142</v>
+        <v>86.52759993321145</v>
       </c>
       <c r="M14" t="n">
-        <v>96.2786270093152</v>
+        <v>96.27862700931523</v>
       </c>
       <c r="N14" t="n">
-        <v>97.83651585053148</v>
+        <v>97.8365158505315</v>
       </c>
       <c r="O14" t="n">
-        <v>92.38424760069627</v>
+        <v>92.38424760069628</v>
       </c>
       <c r="P14" t="n">
-        <v>78.84781794208588</v>
+        <v>78.8478179420859</v>
       </c>
       <c r="Q14" t="n">
-        <v>59.21142757655741</v>
+        <v>59.21142757655743</v>
       </c>
       <c r="R14" t="n">
-        <v>34.44284555109606</v>
+        <v>34.44284555109607</v>
       </c>
       <c r="S14" t="n">
-        <v>12.49463861652998</v>
+        <v>12.49463861652999</v>
       </c>
       <c r="T14" t="n">
-        <v>2.400231729845748</v>
+        <v>2.400231729845749</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04386488598233231</v>
+        <v>0.04386488598233233</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,34 +32075,34 @@
         <v>10.1007564323851</v>
       </c>
       <c r="J15" t="n">
-        <v>27.71724768280349</v>
+        <v>27.7172476828035</v>
       </c>
       <c r="K15" t="n">
-        <v>47.37319102816842</v>
+        <v>47.37319102816843</v>
       </c>
       <c r="L15" t="n">
-        <v>63.69910155225786</v>
+        <v>63.69910155225788</v>
       </c>
       <c r="M15" t="n">
-        <v>74.33384701896648</v>
+        <v>74.33384701896651</v>
       </c>
       <c r="N15" t="n">
-        <v>76.30124276229348</v>
+        <v>76.3012427622935</v>
       </c>
       <c r="O15" t="n">
-        <v>69.80073046975724</v>
+        <v>69.80073046975726</v>
       </c>
       <c r="P15" t="n">
-        <v>56.02123994308055</v>
+        <v>56.02123994308057</v>
       </c>
       <c r="Q15" t="n">
-        <v>37.44871531313833</v>
+        <v>37.44871531313834</v>
       </c>
       <c r="R15" t="n">
-        <v>18.21481631297369</v>
+        <v>18.2148163129737</v>
       </c>
       <c r="S15" t="n">
-        <v>5.449261591229408</v>
+        <v>5.449261591229409</v>
       </c>
       <c r="T15" t="n">
         <v>1.182496198899605</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2459534718630264</v>
+        <v>0.2459534718630265</v>
       </c>
       <c r="H16" t="n">
         <v>2.186749958927637</v>
       </c>
       <c r="I16" t="n">
-        <v>7.396491681117197</v>
+        <v>7.396491681117198</v>
       </c>
       <c r="J16" t="n">
         <v>17.38891046071597</v>
@@ -32160,13 +32160,13 @@
         <v>28.57532154917707</v>
       </c>
       <c r="L16" t="n">
-        <v>36.56657344407213</v>
+        <v>36.56657344407214</v>
       </c>
       <c r="M16" t="n">
-        <v>38.55432468485604</v>
+        <v>38.55432468485605</v>
       </c>
       <c r="N16" t="n">
-        <v>37.63758901700297</v>
+        <v>37.63758901700298</v>
       </c>
       <c r="O16" t="n">
         <v>34.76440527751215</v>
@@ -32175,13 +32175,13 @@
         <v>29.74695445150639</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.59524935754851</v>
+        <v>20.59524935754852</v>
       </c>
       <c r="R16" t="n">
         <v>11.05896247122299</v>
       </c>
       <c r="S16" t="n">
-        <v>4.286298232376559</v>
+        <v>4.28629823237656</v>
       </c>
       <c r="T16" t="n">
         <v>1.050892107051113</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5483110747791541</v>
+        <v>0.5483110747791542</v>
       </c>
       <c r="H17" t="n">
-        <v>5.615390794582013</v>
+        <v>5.615390794582014</v>
       </c>
       <c r="I17" t="n">
         <v>21.13876271042336</v>
       </c>
       <c r="J17" t="n">
-        <v>46.53721708303727</v>
+        <v>46.53721708303728</v>
       </c>
       <c r="K17" t="n">
-        <v>69.74722487843887</v>
+        <v>69.74722487843889</v>
       </c>
       <c r="L17" t="n">
-        <v>86.52759993321142</v>
+        <v>86.52759993321145</v>
       </c>
       <c r="M17" t="n">
-        <v>96.2786270093152</v>
+        <v>96.27862700931523</v>
       </c>
       <c r="N17" t="n">
-        <v>97.83651585053148</v>
+        <v>97.8365158505315</v>
       </c>
       <c r="O17" t="n">
-        <v>92.38424760069627</v>
+        <v>92.38424760069628</v>
       </c>
       <c r="P17" t="n">
-        <v>78.84781794208588</v>
+        <v>78.8478179420859</v>
       </c>
       <c r="Q17" t="n">
-        <v>59.21142757655741</v>
+        <v>59.21142757655743</v>
       </c>
       <c r="R17" t="n">
-        <v>34.44284555109606</v>
+        <v>34.44284555109607</v>
       </c>
       <c r="S17" t="n">
-        <v>12.49463861652998</v>
+        <v>12.49463861652999</v>
       </c>
       <c r="T17" t="n">
-        <v>2.400231729845748</v>
+        <v>2.400231729845749</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04386488598233231</v>
+        <v>0.04386488598233233</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,34 +32312,34 @@
         <v>10.1007564323851</v>
       </c>
       <c r="J18" t="n">
-        <v>27.71724768280349</v>
+        <v>27.7172476828035</v>
       </c>
       <c r="K18" t="n">
-        <v>47.37319102816842</v>
+        <v>47.37319102816843</v>
       </c>
       <c r="L18" t="n">
-        <v>63.69910155225786</v>
+        <v>63.69910155225788</v>
       </c>
       <c r="M18" t="n">
-        <v>74.33384701896648</v>
+        <v>74.33384701896651</v>
       </c>
       <c r="N18" t="n">
-        <v>76.30124276229348</v>
+        <v>76.3012427622935</v>
       </c>
       <c r="O18" t="n">
-        <v>69.80073046975724</v>
+        <v>69.80073046975726</v>
       </c>
       <c r="P18" t="n">
-        <v>56.02123994308055</v>
+        <v>56.02123994308057</v>
       </c>
       <c r="Q18" t="n">
-        <v>37.44871531313833</v>
+        <v>37.44871531313834</v>
       </c>
       <c r="R18" t="n">
-        <v>18.21481631297369</v>
+        <v>18.2148163129737</v>
       </c>
       <c r="S18" t="n">
-        <v>5.449261591229408</v>
+        <v>5.449261591229409</v>
       </c>
       <c r="T18" t="n">
         <v>1.182496198899605</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2459534718630264</v>
+        <v>0.2459534718630265</v>
       </c>
       <c r="H19" t="n">
         <v>2.186749958927637</v>
       </c>
       <c r="I19" t="n">
-        <v>7.396491681117197</v>
+        <v>7.396491681117198</v>
       </c>
       <c r="J19" t="n">
         <v>17.38891046071597</v>
@@ -32397,13 +32397,13 @@
         <v>28.57532154917707</v>
       </c>
       <c r="L19" t="n">
-        <v>36.56657344407213</v>
+        <v>36.56657344407214</v>
       </c>
       <c r="M19" t="n">
-        <v>38.55432468485604</v>
+        <v>38.55432468485605</v>
       </c>
       <c r="N19" t="n">
-        <v>37.63758901700297</v>
+        <v>37.63758901700298</v>
       </c>
       <c r="O19" t="n">
         <v>34.76440527751215</v>
@@ -32412,13 +32412,13 @@
         <v>29.74695445150639</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.59524935754851</v>
+        <v>20.59524935754852</v>
       </c>
       <c r="R19" t="n">
         <v>11.05896247122299</v>
       </c>
       <c r="S19" t="n">
-        <v>4.286298232376559</v>
+        <v>4.28629823237656</v>
       </c>
       <c r="T19" t="n">
         <v>1.050892107051113</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5483110747791541</v>
+        <v>0.5483110747791542</v>
       </c>
       <c r="H20" t="n">
-        <v>5.615390794582013</v>
+        <v>5.615390794582014</v>
       </c>
       <c r="I20" t="n">
         <v>21.13876271042336</v>
       </c>
       <c r="J20" t="n">
-        <v>46.53721708303727</v>
+        <v>46.53721708303728</v>
       </c>
       <c r="K20" t="n">
-        <v>69.74722487843887</v>
+        <v>69.74722487843889</v>
       </c>
       <c r="L20" t="n">
-        <v>86.52759993321142</v>
+        <v>86.52759993321145</v>
       </c>
       <c r="M20" t="n">
-        <v>96.2786270093152</v>
+        <v>96.27862700931523</v>
       </c>
       <c r="N20" t="n">
-        <v>97.83651585053148</v>
+        <v>97.8365158505315</v>
       </c>
       <c r="O20" t="n">
-        <v>92.38424760069627</v>
+        <v>92.38424760069628</v>
       </c>
       <c r="P20" t="n">
-        <v>78.84781794208588</v>
+        <v>78.8478179420859</v>
       </c>
       <c r="Q20" t="n">
-        <v>59.21142757655741</v>
+        <v>59.21142757655743</v>
       </c>
       <c r="R20" t="n">
-        <v>34.44284555109606</v>
+        <v>34.44284555109607</v>
       </c>
       <c r="S20" t="n">
-        <v>12.49463861652998</v>
+        <v>12.49463861652999</v>
       </c>
       <c r="T20" t="n">
-        <v>2.400231729845748</v>
+        <v>2.400231729845749</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04386488598233231</v>
+        <v>0.04386488598233233</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,34 +32549,34 @@
         <v>10.1007564323851</v>
       </c>
       <c r="J21" t="n">
-        <v>27.71724768280349</v>
+        <v>27.7172476828035</v>
       </c>
       <c r="K21" t="n">
-        <v>47.37319102816842</v>
+        <v>47.37319102816843</v>
       </c>
       <c r="L21" t="n">
-        <v>63.69910155225786</v>
+        <v>63.69910155225788</v>
       </c>
       <c r="M21" t="n">
-        <v>74.33384701896648</v>
+        <v>74.33384701896651</v>
       </c>
       <c r="N21" t="n">
-        <v>76.30124276229348</v>
+        <v>76.3012427622935</v>
       </c>
       <c r="O21" t="n">
-        <v>69.80073046975724</v>
+        <v>69.80073046975726</v>
       </c>
       <c r="P21" t="n">
-        <v>56.02123994308055</v>
+        <v>56.02123994308057</v>
       </c>
       <c r="Q21" t="n">
-        <v>37.44871531313833</v>
+        <v>37.44871531313834</v>
       </c>
       <c r="R21" t="n">
-        <v>18.21481631297369</v>
+        <v>18.2148163129737</v>
       </c>
       <c r="S21" t="n">
-        <v>5.449261591229408</v>
+        <v>5.449261591229409</v>
       </c>
       <c r="T21" t="n">
         <v>1.182496198899605</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2459534718630264</v>
+        <v>0.2459534718630265</v>
       </c>
       <c r="H22" t="n">
         <v>2.186749958927637</v>
       </c>
       <c r="I22" t="n">
-        <v>7.396491681117197</v>
+        <v>7.396491681117198</v>
       </c>
       <c r="J22" t="n">
         <v>17.38891046071597</v>
@@ -32634,13 +32634,13 @@
         <v>28.57532154917707</v>
       </c>
       <c r="L22" t="n">
-        <v>36.56657344407213</v>
+        <v>36.56657344407214</v>
       </c>
       <c r="M22" t="n">
-        <v>38.55432468485604</v>
+        <v>38.55432468485605</v>
       </c>
       <c r="N22" t="n">
-        <v>37.63758901700297</v>
+        <v>37.63758901700298</v>
       </c>
       <c r="O22" t="n">
         <v>34.76440527751215</v>
@@ -32649,13 +32649,13 @@
         <v>29.74695445150639</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.59524935754851</v>
+        <v>20.59524935754852</v>
       </c>
       <c r="R22" t="n">
         <v>11.05896247122299</v>
       </c>
       <c r="S22" t="n">
-        <v>4.286298232376559</v>
+        <v>4.28629823237656</v>
       </c>
       <c r="T22" t="n">
         <v>1.050892107051113</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5483110747791541</v>
+        <v>0.5483110747791542</v>
       </c>
       <c r="H23" t="n">
-        <v>5.615390794582013</v>
+        <v>5.615390794582014</v>
       </c>
       <c r="I23" t="n">
         <v>21.13876271042336</v>
       </c>
       <c r="J23" t="n">
-        <v>46.53721708303727</v>
+        <v>46.53721708303728</v>
       </c>
       <c r="K23" t="n">
-        <v>69.74722487843887</v>
+        <v>69.74722487843889</v>
       </c>
       <c r="L23" t="n">
-        <v>86.52759993321142</v>
+        <v>86.52759993321145</v>
       </c>
       <c r="M23" t="n">
-        <v>96.2786270093152</v>
+        <v>96.27862700931523</v>
       </c>
       <c r="N23" t="n">
-        <v>97.83651585053148</v>
+        <v>97.8365158505315</v>
       </c>
       <c r="O23" t="n">
-        <v>92.38424760069627</v>
+        <v>92.38424760069628</v>
       </c>
       <c r="P23" t="n">
-        <v>78.84781794208588</v>
+        <v>78.8478179420859</v>
       </c>
       <c r="Q23" t="n">
-        <v>59.21142757655741</v>
+        <v>59.21142757655743</v>
       </c>
       <c r="R23" t="n">
-        <v>34.44284555109606</v>
+        <v>34.44284555109607</v>
       </c>
       <c r="S23" t="n">
-        <v>12.49463861652998</v>
+        <v>12.49463861652999</v>
       </c>
       <c r="T23" t="n">
-        <v>2.400231729845748</v>
+        <v>2.400231729845749</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04386488598233231</v>
+        <v>0.04386488598233233</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32786,34 +32786,34 @@
         <v>10.1007564323851</v>
       </c>
       <c r="J24" t="n">
-        <v>27.71724768280349</v>
+        <v>27.7172476828035</v>
       </c>
       <c r="K24" t="n">
-        <v>47.37319102816842</v>
+        <v>47.37319102816843</v>
       </c>
       <c r="L24" t="n">
-        <v>63.69910155225786</v>
+        <v>63.69910155225788</v>
       </c>
       <c r="M24" t="n">
-        <v>74.33384701896648</v>
+        <v>74.33384701896651</v>
       </c>
       <c r="N24" t="n">
-        <v>76.30124276229348</v>
+        <v>76.3012427622935</v>
       </c>
       <c r="O24" t="n">
-        <v>69.80073046975724</v>
+        <v>69.80073046975726</v>
       </c>
       <c r="P24" t="n">
-        <v>56.02123994308055</v>
+        <v>56.02123994308057</v>
       </c>
       <c r="Q24" t="n">
-        <v>37.44871531313833</v>
+        <v>37.44871531313834</v>
       </c>
       <c r="R24" t="n">
-        <v>18.21481631297369</v>
+        <v>18.2148163129737</v>
       </c>
       <c r="S24" t="n">
-        <v>5.449261591229408</v>
+        <v>5.449261591229409</v>
       </c>
       <c r="T24" t="n">
         <v>1.182496198899605</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2459534718630264</v>
+        <v>0.2459534718630265</v>
       </c>
       <c r="H25" t="n">
         <v>2.186749958927637</v>
       </c>
       <c r="I25" t="n">
-        <v>7.396491681117197</v>
+        <v>7.396491681117198</v>
       </c>
       <c r="J25" t="n">
         <v>17.38891046071597</v>
@@ -32871,13 +32871,13 @@
         <v>28.57532154917707</v>
       </c>
       <c r="L25" t="n">
-        <v>36.56657344407213</v>
+        <v>36.56657344407214</v>
       </c>
       <c r="M25" t="n">
-        <v>38.55432468485604</v>
+        <v>38.55432468485605</v>
       </c>
       <c r="N25" t="n">
-        <v>37.63758901700297</v>
+        <v>37.63758901700298</v>
       </c>
       <c r="O25" t="n">
         <v>34.76440527751215</v>
@@ -32886,13 +32886,13 @@
         <v>29.74695445150639</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.59524935754851</v>
+        <v>20.59524935754852</v>
       </c>
       <c r="R25" t="n">
         <v>11.05896247122299</v>
       </c>
       <c r="S25" t="n">
-        <v>4.286298232376559</v>
+        <v>4.28629823237656</v>
       </c>
       <c r="T25" t="n">
         <v>1.050892107051113</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5483110747791545</v>
+        <v>0.5483110747791542</v>
       </c>
       <c r="H26" t="n">
-        <v>5.615390794582018</v>
+        <v>5.615390794582014</v>
       </c>
       <c r="I26" t="n">
-        <v>21.13876271042338</v>
+        <v>21.13876271042336</v>
       </c>
       <c r="J26" t="n">
-        <v>46.53721708303731</v>
+        <v>46.53721708303728</v>
       </c>
       <c r="K26" t="n">
-        <v>69.74722487843893</v>
+        <v>69.74722487843889</v>
       </c>
       <c r="L26" t="n">
-        <v>86.5275999332115</v>
+        <v>86.52759993321145</v>
       </c>
       <c r="M26" t="n">
-        <v>96.27862700931529</v>
+        <v>96.27862700931523</v>
       </c>
       <c r="N26" t="n">
-        <v>97.83651585053157</v>
+        <v>97.8365158505315</v>
       </c>
       <c r="O26" t="n">
-        <v>92.38424760069634</v>
+        <v>92.38424760069628</v>
       </c>
       <c r="P26" t="n">
-        <v>78.84781794208595</v>
+        <v>78.8478179420859</v>
       </c>
       <c r="Q26" t="n">
-        <v>59.21142757655746</v>
+        <v>59.21142757655743</v>
       </c>
       <c r="R26" t="n">
-        <v>34.44284555109609</v>
+        <v>34.44284555109607</v>
       </c>
       <c r="S26" t="n">
-        <v>12.49463861653</v>
+        <v>12.49463861652999</v>
       </c>
       <c r="T26" t="n">
-        <v>2.40023172984575</v>
+        <v>2.400231729845749</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04386488598233235</v>
+        <v>0.04386488598233233</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2933722887367903</v>
+        <v>0.2933722887367901</v>
       </c>
       <c r="H27" t="n">
-        <v>2.83335868332637</v>
+        <v>2.833358683326368</v>
       </c>
       <c r="I27" t="n">
-        <v>10.10075643238511</v>
+        <v>10.1007564323851</v>
       </c>
       <c r="J27" t="n">
-        <v>27.71724768280351</v>
+        <v>27.7172476828035</v>
       </c>
       <c r="K27" t="n">
-        <v>47.37319102816846</v>
+        <v>47.37319102816843</v>
       </c>
       <c r="L27" t="n">
-        <v>63.69910155225791</v>
+        <v>63.69910155225788</v>
       </c>
       <c r="M27" t="n">
-        <v>74.33384701896655</v>
+        <v>74.33384701896651</v>
       </c>
       <c r="N27" t="n">
-        <v>76.30124276229354</v>
+        <v>76.3012427622935</v>
       </c>
       <c r="O27" t="n">
-        <v>69.8007304697573</v>
+        <v>69.80073046975726</v>
       </c>
       <c r="P27" t="n">
-        <v>56.0212399430806</v>
+        <v>56.02123994308057</v>
       </c>
       <c r="Q27" t="n">
-        <v>37.44871531313836</v>
+        <v>37.44871531313834</v>
       </c>
       <c r="R27" t="n">
-        <v>18.21481631297371</v>
+        <v>18.2148163129737</v>
       </c>
       <c r="S27" t="n">
-        <v>5.449261591229413</v>
+        <v>5.449261591229409</v>
       </c>
       <c r="T27" t="n">
-        <v>1.182496198899606</v>
+        <v>1.182496198899605</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01930080846952568</v>
+        <v>0.01930080846952567</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2459534718630266</v>
+        <v>0.2459534718630265</v>
       </c>
       <c r="H28" t="n">
-        <v>2.186749958927638</v>
+        <v>2.186749958927637</v>
       </c>
       <c r="I28" t="n">
-        <v>7.396491681117204</v>
+        <v>7.396491681117198</v>
       </c>
       <c r="J28" t="n">
-        <v>17.38891046071598</v>
+        <v>17.38891046071597</v>
       </c>
       <c r="K28" t="n">
-        <v>28.57532154917709</v>
+        <v>28.57532154917707</v>
       </c>
       <c r="L28" t="n">
-        <v>36.56657344407217</v>
+        <v>36.56657344407214</v>
       </c>
       <c r="M28" t="n">
-        <v>38.55432468485607</v>
+        <v>38.55432468485605</v>
       </c>
       <c r="N28" t="n">
-        <v>37.637589017003</v>
+        <v>37.63758901700298</v>
       </c>
       <c r="O28" t="n">
-        <v>34.76440527751218</v>
+        <v>34.76440527751215</v>
       </c>
       <c r="P28" t="n">
-        <v>29.74695445150641</v>
+        <v>29.74695445150639</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.59524935754853</v>
+        <v>20.59524935754852</v>
       </c>
       <c r="R28" t="n">
         <v>11.05896247122299</v>
       </c>
       <c r="S28" t="n">
-        <v>4.286298232376563</v>
+        <v>4.28629823237656</v>
       </c>
       <c r="T28" t="n">
         <v>1.050892107051113</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01341564391980147</v>
+        <v>0.01341564391980146</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5483110747791545</v>
+        <v>0.5483110747791541</v>
       </c>
       <c r="H32" t="n">
-        <v>5.615390794582018</v>
+        <v>5.615390794582013</v>
       </c>
       <c r="I32" t="n">
-        <v>21.13876271042338</v>
+        <v>21.13876271042336</v>
       </c>
       <c r="J32" t="n">
-        <v>46.53721708303731</v>
+        <v>46.53721708303727</v>
       </c>
       <c r="K32" t="n">
-        <v>69.74722487843893</v>
+        <v>69.74722487843887</v>
       </c>
       <c r="L32" t="n">
-        <v>86.5275999332115</v>
+        <v>86.52759993321142</v>
       </c>
       <c r="M32" t="n">
-        <v>96.27862700931529</v>
+        <v>96.2786270093152</v>
       </c>
       <c r="N32" t="n">
-        <v>97.83651585053157</v>
+        <v>97.83651585053148</v>
       </c>
       <c r="O32" t="n">
-        <v>92.38424760069634</v>
+        <v>92.38424760069627</v>
       </c>
       <c r="P32" t="n">
-        <v>78.84781794208595</v>
+        <v>78.84781794208588</v>
       </c>
       <c r="Q32" t="n">
-        <v>59.21142757655746</v>
+        <v>59.21142757655741</v>
       </c>
       <c r="R32" t="n">
-        <v>34.44284555109609</v>
+        <v>34.44284555109606</v>
       </c>
       <c r="S32" t="n">
-        <v>12.49463861653</v>
+        <v>12.49463861652998</v>
       </c>
       <c r="T32" t="n">
-        <v>2.40023172984575</v>
+        <v>2.400231729845748</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04386488598233235</v>
+        <v>0.04386488598233231</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2933722887367903</v>
+        <v>0.2933722887367901</v>
       </c>
       <c r="H33" t="n">
-        <v>2.83335868332637</v>
+        <v>2.833358683326368</v>
       </c>
       <c r="I33" t="n">
-        <v>10.10075643238511</v>
+        <v>10.1007564323851</v>
       </c>
       <c r="J33" t="n">
-        <v>27.71724768280351</v>
+        <v>27.71724768280349</v>
       </c>
       <c r="K33" t="n">
-        <v>47.37319102816846</v>
+        <v>47.37319102816842</v>
       </c>
       <c r="L33" t="n">
-        <v>63.69910155225791</v>
+        <v>63.69910155225786</v>
       </c>
       <c r="M33" t="n">
-        <v>74.33384701896655</v>
+        <v>74.33384701896648</v>
       </c>
       <c r="N33" t="n">
-        <v>76.30124276229354</v>
+        <v>76.30124276229348</v>
       </c>
       <c r="O33" t="n">
-        <v>69.8007304697573</v>
+        <v>69.80073046975724</v>
       </c>
       <c r="P33" t="n">
-        <v>56.0212399430806</v>
+        <v>56.02123994308055</v>
       </c>
       <c r="Q33" t="n">
-        <v>37.44871531313836</v>
+        <v>37.44871531313833</v>
       </c>
       <c r="R33" t="n">
-        <v>18.21481631297371</v>
+        <v>18.21481631297369</v>
       </c>
       <c r="S33" t="n">
-        <v>5.449261591229413</v>
+        <v>5.449261591229408</v>
       </c>
       <c r="T33" t="n">
-        <v>1.182496198899606</v>
+        <v>1.182496198899605</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01930080846952568</v>
+        <v>0.01930080846952567</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2459534718630266</v>
+        <v>0.2459534718630264</v>
       </c>
       <c r="H34" t="n">
-        <v>2.186749958927638</v>
+        <v>2.186749958927637</v>
       </c>
       <c r="I34" t="n">
-        <v>7.396491681117204</v>
+        <v>7.396491681117197</v>
       </c>
       <c r="J34" t="n">
-        <v>17.38891046071598</v>
+        <v>17.38891046071597</v>
       </c>
       <c r="K34" t="n">
-        <v>28.57532154917709</v>
+        <v>28.57532154917707</v>
       </c>
       <c r="L34" t="n">
-        <v>36.56657344407217</v>
+        <v>36.56657344407213</v>
       </c>
       <c r="M34" t="n">
-        <v>38.55432468485607</v>
+        <v>38.55432468485604</v>
       </c>
       <c r="N34" t="n">
-        <v>37.637589017003</v>
+        <v>37.63758901700297</v>
       </c>
       <c r="O34" t="n">
-        <v>34.76440527751218</v>
+        <v>34.76440527751215</v>
       </c>
       <c r="P34" t="n">
-        <v>29.74695445150641</v>
+        <v>29.74695445150639</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.59524935754853</v>
+        <v>20.59524935754851</v>
       </c>
       <c r="R34" t="n">
         <v>11.05896247122299</v>
       </c>
       <c r="S34" t="n">
-        <v>4.286298232376563</v>
+        <v>4.286298232376559</v>
       </c>
       <c r="T34" t="n">
         <v>1.050892107051113</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01341564391980147</v>
+        <v>0.01341564391980146</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5483110747791545</v>
+        <v>0.5483110747791541</v>
       </c>
       <c r="H35" t="n">
-        <v>5.615390794582018</v>
+        <v>5.615390794582013</v>
       </c>
       <c r="I35" t="n">
-        <v>21.13876271042338</v>
+        <v>21.13876271042336</v>
       </c>
       <c r="J35" t="n">
-        <v>46.53721708303731</v>
+        <v>46.53721708303727</v>
       </c>
       <c r="K35" t="n">
-        <v>69.74722487843893</v>
+        <v>69.74722487843887</v>
       </c>
       <c r="L35" t="n">
-        <v>86.5275999332115</v>
+        <v>86.52759993321142</v>
       </c>
       <c r="M35" t="n">
-        <v>96.27862700931529</v>
+        <v>96.2786270093152</v>
       </c>
       <c r="N35" t="n">
-        <v>97.83651585053157</v>
+        <v>97.83651585053148</v>
       </c>
       <c r="O35" t="n">
-        <v>92.38424760069634</v>
+        <v>92.38424760069627</v>
       </c>
       <c r="P35" t="n">
-        <v>78.84781794208595</v>
+        <v>78.84781794208588</v>
       </c>
       <c r="Q35" t="n">
-        <v>59.21142757655746</v>
+        <v>59.21142757655741</v>
       </c>
       <c r="R35" t="n">
-        <v>34.44284555109609</v>
+        <v>34.44284555109606</v>
       </c>
       <c r="S35" t="n">
-        <v>12.49463861653</v>
+        <v>12.49463861652998</v>
       </c>
       <c r="T35" t="n">
-        <v>2.40023172984575</v>
+        <v>2.400231729845748</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04386488598233235</v>
+        <v>0.04386488598233231</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2933722887367903</v>
+        <v>0.2933722887367901</v>
       </c>
       <c r="H36" t="n">
-        <v>2.83335868332637</v>
+        <v>2.833358683326368</v>
       </c>
       <c r="I36" t="n">
-        <v>10.10075643238511</v>
+        <v>10.1007564323851</v>
       </c>
       <c r="J36" t="n">
-        <v>27.71724768280351</v>
+        <v>27.71724768280349</v>
       </c>
       <c r="K36" t="n">
-        <v>47.37319102816846</v>
+        <v>47.37319102816842</v>
       </c>
       <c r="L36" t="n">
-        <v>63.69910155225791</v>
+        <v>63.69910155225786</v>
       </c>
       <c r="M36" t="n">
-        <v>74.33384701896655</v>
+        <v>74.33384701896648</v>
       </c>
       <c r="N36" t="n">
-        <v>76.30124276229354</v>
+        <v>76.30124276229348</v>
       </c>
       <c r="O36" t="n">
-        <v>69.8007304697573</v>
+        <v>69.80073046975724</v>
       </c>
       <c r="P36" t="n">
-        <v>56.0212399430806</v>
+        <v>56.02123994308055</v>
       </c>
       <c r="Q36" t="n">
-        <v>37.44871531313836</v>
+        <v>37.44871531313833</v>
       </c>
       <c r="R36" t="n">
-        <v>18.21481631297371</v>
+        <v>18.21481631297369</v>
       </c>
       <c r="S36" t="n">
-        <v>5.449261591229413</v>
+        <v>5.449261591229408</v>
       </c>
       <c r="T36" t="n">
-        <v>1.182496198899606</v>
+        <v>1.182496198899605</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01930080846952568</v>
+        <v>0.01930080846952567</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2459534718630266</v>
+        <v>0.2459534718630264</v>
       </c>
       <c r="H37" t="n">
-        <v>2.186749958927638</v>
+        <v>2.186749958927637</v>
       </c>
       <c r="I37" t="n">
-        <v>7.396491681117204</v>
+        <v>7.396491681117197</v>
       </c>
       <c r="J37" t="n">
-        <v>17.38891046071598</v>
+        <v>17.38891046071597</v>
       </c>
       <c r="K37" t="n">
-        <v>28.57532154917709</v>
+        <v>28.57532154917707</v>
       </c>
       <c r="L37" t="n">
-        <v>36.56657344407217</v>
+        <v>36.56657344407213</v>
       </c>
       <c r="M37" t="n">
-        <v>38.55432468485607</v>
+        <v>38.55432468485604</v>
       </c>
       <c r="N37" t="n">
-        <v>37.637589017003</v>
+        <v>37.63758901700297</v>
       </c>
       <c r="O37" t="n">
-        <v>34.76440527751218</v>
+        <v>34.76440527751215</v>
       </c>
       <c r="P37" t="n">
-        <v>29.74695445150641</v>
+        <v>29.74695445150639</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.59524935754853</v>
+        <v>20.59524935754851</v>
       </c>
       <c r="R37" t="n">
         <v>11.05896247122299</v>
       </c>
       <c r="S37" t="n">
-        <v>4.286298232376563</v>
+        <v>4.286298232376559</v>
       </c>
       <c r="T37" t="n">
         <v>1.050892107051113</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01341564391980147</v>
+        <v>0.01341564391980146</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5483110747791545</v>
+        <v>0.5483110747791541</v>
       </c>
       <c r="H38" t="n">
-        <v>5.615390794582018</v>
+        <v>5.615390794582013</v>
       </c>
       <c r="I38" t="n">
-        <v>21.13876271042338</v>
+        <v>21.13876271042336</v>
       </c>
       <c r="J38" t="n">
-        <v>46.53721708303731</v>
+        <v>46.53721708303727</v>
       </c>
       <c r="K38" t="n">
-        <v>69.74722487843893</v>
+        <v>69.74722487843887</v>
       </c>
       <c r="L38" t="n">
-        <v>86.5275999332115</v>
+        <v>86.52759993321142</v>
       </c>
       <c r="M38" t="n">
-        <v>96.27862700931529</v>
+        <v>96.2786270093152</v>
       </c>
       <c r="N38" t="n">
-        <v>97.83651585053157</v>
+        <v>97.83651585053148</v>
       </c>
       <c r="O38" t="n">
-        <v>92.38424760069634</v>
+        <v>92.38424760069627</v>
       </c>
       <c r="P38" t="n">
-        <v>78.84781794208595</v>
+        <v>78.84781794208588</v>
       </c>
       <c r="Q38" t="n">
-        <v>59.21142757655746</v>
+        <v>59.21142757655741</v>
       </c>
       <c r="R38" t="n">
-        <v>34.44284555109609</v>
+        <v>34.44284555109606</v>
       </c>
       <c r="S38" t="n">
-        <v>12.49463861653</v>
+        <v>12.49463861652998</v>
       </c>
       <c r="T38" t="n">
-        <v>2.40023172984575</v>
+        <v>2.400231729845748</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04386488598233235</v>
+        <v>0.04386488598233231</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2933722887367903</v>
+        <v>0.2933722887367901</v>
       </c>
       <c r="H39" t="n">
-        <v>2.83335868332637</v>
+        <v>2.833358683326368</v>
       </c>
       <c r="I39" t="n">
-        <v>10.10075643238511</v>
+        <v>10.1007564323851</v>
       </c>
       <c r="J39" t="n">
-        <v>27.71724768280351</v>
+        <v>27.71724768280349</v>
       </c>
       <c r="K39" t="n">
-        <v>47.37319102816846</v>
+        <v>47.37319102816842</v>
       </c>
       <c r="L39" t="n">
-        <v>63.69910155225791</v>
+        <v>63.69910155225786</v>
       </c>
       <c r="M39" t="n">
-        <v>74.33384701896655</v>
+        <v>74.33384701896648</v>
       </c>
       <c r="N39" t="n">
-        <v>76.30124276229354</v>
+        <v>76.30124276229348</v>
       </c>
       <c r="O39" t="n">
-        <v>69.8007304697573</v>
+        <v>69.80073046975724</v>
       </c>
       <c r="P39" t="n">
-        <v>56.0212399430806</v>
+        <v>56.02123994308055</v>
       </c>
       <c r="Q39" t="n">
-        <v>37.44871531313836</v>
+        <v>37.44871531313833</v>
       </c>
       <c r="R39" t="n">
-        <v>18.21481631297371</v>
+        <v>18.21481631297369</v>
       </c>
       <c r="S39" t="n">
-        <v>5.449261591229413</v>
+        <v>5.449261591229408</v>
       </c>
       <c r="T39" t="n">
-        <v>1.182496198899606</v>
+        <v>1.182496198899605</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01930080846952568</v>
+        <v>0.01930080846952567</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2459534718630266</v>
+        <v>0.2459534718630264</v>
       </c>
       <c r="H40" t="n">
-        <v>2.186749958927638</v>
+        <v>2.186749958927637</v>
       </c>
       <c r="I40" t="n">
-        <v>7.396491681117204</v>
+        <v>7.396491681117197</v>
       </c>
       <c r="J40" t="n">
-        <v>17.38891046071598</v>
+        <v>17.38891046071597</v>
       </c>
       <c r="K40" t="n">
-        <v>28.57532154917709</v>
+        <v>28.57532154917707</v>
       </c>
       <c r="L40" t="n">
-        <v>36.56657344407217</v>
+        <v>36.56657344407213</v>
       </c>
       <c r="M40" t="n">
-        <v>38.55432468485607</v>
+        <v>38.55432468485604</v>
       </c>
       <c r="N40" t="n">
-        <v>37.637589017003</v>
+        <v>37.63758901700297</v>
       </c>
       <c r="O40" t="n">
-        <v>34.76440527751218</v>
+        <v>34.76440527751215</v>
       </c>
       <c r="P40" t="n">
-        <v>29.74695445150641</v>
+        <v>29.74695445150639</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.59524935754853</v>
+        <v>20.59524935754851</v>
       </c>
       <c r="R40" t="n">
         <v>11.05896247122299</v>
       </c>
       <c r="S40" t="n">
-        <v>4.286298232376563</v>
+        <v>4.286298232376559</v>
       </c>
       <c r="T40" t="n">
         <v>1.050892107051113</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01341564391980147</v>
+        <v>0.01341564391980146</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5483110747791545</v>
+        <v>0.5483110747791541</v>
       </c>
       <c r="H41" t="n">
-        <v>5.615390794582018</v>
+        <v>5.615390794582013</v>
       </c>
       <c r="I41" t="n">
-        <v>21.13876271042338</v>
+        <v>21.13876271042336</v>
       </c>
       <c r="J41" t="n">
-        <v>46.53721708303731</v>
+        <v>46.53721708303727</v>
       </c>
       <c r="K41" t="n">
-        <v>69.74722487843893</v>
+        <v>69.74722487843887</v>
       </c>
       <c r="L41" t="n">
-        <v>86.5275999332115</v>
+        <v>86.52759993321142</v>
       </c>
       <c r="M41" t="n">
-        <v>96.27862700931529</v>
+        <v>96.2786270093152</v>
       </c>
       <c r="N41" t="n">
-        <v>97.83651585053157</v>
+        <v>97.83651585053148</v>
       </c>
       <c r="O41" t="n">
-        <v>92.38424760069634</v>
+        <v>92.38424760069627</v>
       </c>
       <c r="P41" t="n">
-        <v>78.84781794208595</v>
+        <v>78.84781794208588</v>
       </c>
       <c r="Q41" t="n">
-        <v>59.21142757655746</v>
+        <v>59.21142757655741</v>
       </c>
       <c r="R41" t="n">
-        <v>34.44284555109609</v>
+        <v>34.44284555109606</v>
       </c>
       <c r="S41" t="n">
-        <v>12.49463861653</v>
+        <v>12.49463861652998</v>
       </c>
       <c r="T41" t="n">
-        <v>2.40023172984575</v>
+        <v>2.400231729845748</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04386488598233235</v>
+        <v>0.04386488598233231</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2933722887367903</v>
+        <v>0.2933722887367901</v>
       </c>
       <c r="H42" t="n">
-        <v>2.83335868332637</v>
+        <v>2.833358683326368</v>
       </c>
       <c r="I42" t="n">
-        <v>10.10075643238511</v>
+        <v>10.1007564323851</v>
       </c>
       <c r="J42" t="n">
-        <v>27.71724768280351</v>
+        <v>27.71724768280349</v>
       </c>
       <c r="K42" t="n">
-        <v>47.37319102816846</v>
+        <v>47.37319102816842</v>
       </c>
       <c r="L42" t="n">
-        <v>63.69910155225791</v>
+        <v>63.69910155225786</v>
       </c>
       <c r="M42" t="n">
-        <v>74.33384701896655</v>
+        <v>74.33384701896648</v>
       </c>
       <c r="N42" t="n">
-        <v>76.30124276229354</v>
+        <v>76.30124276229348</v>
       </c>
       <c r="O42" t="n">
-        <v>69.8007304697573</v>
+        <v>69.80073046975724</v>
       </c>
       <c r="P42" t="n">
-        <v>56.0212399430806</v>
+        <v>56.02123994308055</v>
       </c>
       <c r="Q42" t="n">
-        <v>37.44871531313836</v>
+        <v>37.44871531313833</v>
       </c>
       <c r="R42" t="n">
-        <v>18.21481631297371</v>
+        <v>18.21481631297369</v>
       </c>
       <c r="S42" t="n">
-        <v>5.449261591229413</v>
+        <v>5.449261591229408</v>
       </c>
       <c r="T42" t="n">
-        <v>1.182496198899606</v>
+        <v>1.182496198899605</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01930080846952568</v>
+        <v>0.01930080846952567</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2459534718630266</v>
+        <v>0.2459534718630264</v>
       </c>
       <c r="H43" t="n">
-        <v>2.186749958927638</v>
+        <v>2.186749958927637</v>
       </c>
       <c r="I43" t="n">
-        <v>7.396491681117204</v>
+        <v>7.396491681117197</v>
       </c>
       <c r="J43" t="n">
-        <v>17.38891046071598</v>
+        <v>17.38891046071597</v>
       </c>
       <c r="K43" t="n">
-        <v>28.57532154917709</v>
+        <v>28.57532154917707</v>
       </c>
       <c r="L43" t="n">
-        <v>36.56657344407217</v>
+        <v>36.56657344407213</v>
       </c>
       <c r="M43" t="n">
-        <v>38.55432468485607</v>
+        <v>38.55432468485604</v>
       </c>
       <c r="N43" t="n">
-        <v>37.637589017003</v>
+        <v>37.63758901700297</v>
       </c>
       <c r="O43" t="n">
-        <v>34.76440527751218</v>
+        <v>34.76440527751215</v>
       </c>
       <c r="P43" t="n">
-        <v>29.74695445150641</v>
+        <v>29.74695445150639</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.59524935754853</v>
+        <v>20.59524935754851</v>
       </c>
       <c r="R43" t="n">
         <v>11.05896247122299</v>
       </c>
       <c r="S43" t="n">
-        <v>4.286298232376563</v>
+        <v>4.286298232376559</v>
       </c>
       <c r="T43" t="n">
         <v>1.050892107051113</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01341564391980147</v>
+        <v>0.01341564391980146</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5483110747791545</v>
+        <v>0.5483110747791541</v>
       </c>
       <c r="H44" t="n">
-        <v>5.615390794582018</v>
+        <v>5.615390794582013</v>
       </c>
       <c r="I44" t="n">
-        <v>21.13876271042338</v>
+        <v>21.13876271042336</v>
       </c>
       <c r="J44" t="n">
-        <v>46.53721708303731</v>
+        <v>46.53721708303727</v>
       </c>
       <c r="K44" t="n">
-        <v>69.74722487843893</v>
+        <v>69.74722487843887</v>
       </c>
       <c r="L44" t="n">
-        <v>86.5275999332115</v>
+        <v>86.52759993321142</v>
       </c>
       <c r="M44" t="n">
-        <v>96.27862700931529</v>
+        <v>96.2786270093152</v>
       </c>
       <c r="N44" t="n">
-        <v>97.83651585053157</v>
+        <v>97.83651585053148</v>
       </c>
       <c r="O44" t="n">
-        <v>92.38424760069634</v>
+        <v>92.38424760069627</v>
       </c>
       <c r="P44" t="n">
-        <v>78.84781794208595</v>
+        <v>78.84781794208588</v>
       </c>
       <c r="Q44" t="n">
-        <v>59.21142757655746</v>
+        <v>59.21142757655741</v>
       </c>
       <c r="R44" t="n">
-        <v>34.44284555109609</v>
+        <v>34.44284555109606</v>
       </c>
       <c r="S44" t="n">
-        <v>12.49463861653</v>
+        <v>12.49463861652998</v>
       </c>
       <c r="T44" t="n">
-        <v>2.40023172984575</v>
+        <v>2.400231729845748</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04386488598233235</v>
+        <v>0.04386488598233231</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2933722887367903</v>
+        <v>0.2933722887367901</v>
       </c>
       <c r="H45" t="n">
-        <v>2.83335868332637</v>
+        <v>2.833358683326368</v>
       </c>
       <c r="I45" t="n">
-        <v>10.10075643238511</v>
+        <v>10.1007564323851</v>
       </c>
       <c r="J45" t="n">
-        <v>27.71724768280351</v>
+        <v>27.71724768280349</v>
       </c>
       <c r="K45" t="n">
-        <v>47.37319102816846</v>
+        <v>47.37319102816842</v>
       </c>
       <c r="L45" t="n">
-        <v>63.69910155225791</v>
+        <v>63.69910155225786</v>
       </c>
       <c r="M45" t="n">
-        <v>74.33384701896655</v>
+        <v>74.33384701896648</v>
       </c>
       <c r="N45" t="n">
-        <v>76.30124276229354</v>
+        <v>76.30124276229348</v>
       </c>
       <c r="O45" t="n">
-        <v>69.8007304697573</v>
+        <v>69.80073046975724</v>
       </c>
       <c r="P45" t="n">
-        <v>56.0212399430806</v>
+        <v>56.02123994308055</v>
       </c>
       <c r="Q45" t="n">
-        <v>37.44871531313836</v>
+        <v>37.44871531313833</v>
       </c>
       <c r="R45" t="n">
-        <v>18.21481631297371</v>
+        <v>18.21481631297369</v>
       </c>
       <c r="S45" t="n">
-        <v>5.449261591229413</v>
+        <v>5.449261591229408</v>
       </c>
       <c r="T45" t="n">
-        <v>1.182496198899606</v>
+        <v>1.182496198899605</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01930080846952568</v>
+        <v>0.01930080846952567</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2459534718630266</v>
+        <v>0.2459534718630264</v>
       </c>
       <c r="H46" t="n">
-        <v>2.186749958927638</v>
+        <v>2.186749958927637</v>
       </c>
       <c r="I46" t="n">
-        <v>7.396491681117204</v>
+        <v>7.396491681117197</v>
       </c>
       <c r="J46" t="n">
-        <v>17.38891046071598</v>
+        <v>17.38891046071597</v>
       </c>
       <c r="K46" t="n">
-        <v>28.57532154917709</v>
+        <v>28.57532154917707</v>
       </c>
       <c r="L46" t="n">
-        <v>36.56657344407217</v>
+        <v>36.56657344407213</v>
       </c>
       <c r="M46" t="n">
-        <v>38.55432468485607</v>
+        <v>38.55432468485604</v>
       </c>
       <c r="N46" t="n">
-        <v>37.637589017003</v>
+        <v>37.63758901700297</v>
       </c>
       <c r="O46" t="n">
-        <v>34.76440527751218</v>
+        <v>34.76440527751215</v>
       </c>
       <c r="P46" t="n">
-        <v>29.74695445150641</v>
+        <v>29.74695445150639</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.59524935754853</v>
+        <v>20.59524935754851</v>
       </c>
       <c r="R46" t="n">
         <v>11.05896247122299</v>
       </c>
       <c r="S46" t="n">
-        <v>4.286298232376563</v>
+        <v>4.286298232376559</v>
       </c>
       <c r="T46" t="n">
         <v>1.050892107051113</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01341564391980147</v>
+        <v>0.01341564391980146</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-1.728269603747799e-12</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35191,7 +35191,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,13 +35340,13 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>119.2630193788005</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>312.3132572469062</v>
@@ -35416,10 +35416,10 @@
         <v>437.9269666856823</v>
       </c>
       <c r="M11" t="n">
-        <v>493.4899060528383</v>
+        <v>336.3485789603447</v>
       </c>
       <c r="N11" t="n">
-        <v>203.5850569425864</v>
+        <v>479.9894034138806</v>
       </c>
       <c r="O11" t="n">
         <v>400.4696864621446</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>88.58002195866825</v>
       </c>
       <c r="K12" t="n">
-        <v>279.1818299778539</v>
+        <v>89.38461534320844</v>
       </c>
       <c r="L12" t="n">
         <v>433.2161168756069</v>
@@ -35498,16 +35498,16 @@
         <v>564.2665273323264</v>
       </c>
       <c r="N12" t="n">
-        <v>327.1593604392211</v>
+        <v>592.7311883412046</v>
       </c>
       <c r="O12" t="n">
         <v>465.9622969183944</v>
       </c>
       <c r="P12" t="n">
-        <v>361.1686331508555</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>196.8139979248496</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>119.2630193788005</v>
+        <v>119.2630193788006</v>
       </c>
       <c r="K14" t="n">
         <v>312.3132572469063</v>
@@ -35659,13 +35659,13 @@
         <v>479.9894034138807</v>
       </c>
       <c r="O14" t="n">
-        <v>400.4696864621447</v>
+        <v>400.4696864621448</v>
       </c>
       <c r="P14" t="n">
-        <v>187.5025254540055</v>
+        <v>32.90498304256216</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>154.5975424114433</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>88.58002195866828</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>279.181829977854</v>
@@ -35732,10 +35732,10 @@
         <v>433.216116875607</v>
       </c>
       <c r="M15" t="n">
-        <v>564.2665273323265</v>
+        <v>101.8807015054931</v>
       </c>
       <c r="N15" t="n">
-        <v>41.76534055570319</v>
+        <v>592.7311883412046</v>
       </c>
       <c r="O15" t="n">
         <v>465.9622969183945</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.23795554859204</v>
+        <v>60.23795554859205</v>
       </c>
       <c r="K16" t="n">
-        <v>164.8246568215107</v>
+        <v>164.8246568215104</v>
       </c>
       <c r="L16" t="n">
         <v>240.4955972574319</v>
       </c>
       <c r="M16" t="n">
-        <v>260.0453956975513</v>
+        <v>260.0453956975514</v>
       </c>
       <c r="N16" t="n">
         <v>259.5618273246464</v>
       </c>
       <c r="O16" t="n">
-        <v>236.5283453488821</v>
+        <v>236.5283453488822</v>
       </c>
       <c r="P16" t="n">
         <v>195.6571947576725</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.74899271254573</v>
+        <v>84.74899271254574</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>119.2630193788005</v>
+        <v>119.2630193788006</v>
       </c>
       <c r="K17" t="n">
         <v>312.3132572469063</v>
@@ -35890,13 +35890,13 @@
         <v>437.9269666856824</v>
       </c>
       <c r="M17" t="n">
-        <v>217.0855595815438</v>
+        <v>493.4899060528384</v>
       </c>
       <c r="N17" t="n">
-        <v>479.9894034138807</v>
+        <v>203.585056942586</v>
       </c>
       <c r="O17" t="n">
-        <v>400.4696864621447</v>
+        <v>400.4696864621448</v>
       </c>
       <c r="P17" t="n">
         <v>309.3093295138568</v>
@@ -35969,10 +35969,10 @@
         <v>433.216116875607</v>
       </c>
       <c r="M18" t="n">
-        <v>13.30067954682494</v>
+        <v>564.2665273323265</v>
       </c>
       <c r="N18" t="n">
-        <v>592.7311883412046</v>
+        <v>41.76534055570296</v>
       </c>
       <c r="O18" t="n">
         <v>465.9622969183945</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>62.51894553366536</v>
+        <v>62.51894553366537</v>
       </c>
       <c r="L19" t="n">
         <v>138.1898859695868</v>
@@ -36057,7 +36057,7 @@
         <v>134.2226340610371</v>
       </c>
       <c r="P19" t="n">
-        <v>93.35148346982739</v>
+        <v>93.3514834698274</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>119.2630193788006</v>
       </c>
       <c r="K20" t="n">
         <v>312.3132572469063</v>
@@ -36127,19 +36127,19 @@
         <v>437.9269666856824</v>
       </c>
       <c r="M20" t="n">
-        <v>493.4899060528384</v>
+        <v>217.0855595815437</v>
       </c>
       <c r="N20" t="n">
         <v>479.9894034138807</v>
       </c>
       <c r="O20" t="n">
-        <v>400.4696864621447</v>
+        <v>400.4696864621448</v>
       </c>
       <c r="P20" t="n">
-        <v>306.7655448328061</v>
+        <v>309.3093295138568</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>154.5975424114433</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>433.216116875607</v>
       </c>
       <c r="M21" t="n">
-        <v>564.2665273323265</v>
+        <v>13.30067954682482</v>
       </c>
       <c r="N21" t="n">
-        <v>41.76534055570319</v>
+        <v>592.7311883412046</v>
       </c>
       <c r="O21" t="n">
         <v>465.9622969183945</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>62.51894553366536</v>
+        <v>62.51894553366537</v>
       </c>
       <c r="L22" t="n">
         <v>138.1898859695868</v>
@@ -36294,7 +36294,7 @@
         <v>134.2226340610371</v>
       </c>
       <c r="P22" t="n">
-        <v>93.35148346982739</v>
+        <v>93.3514834698274</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>119.2630193788006</v>
       </c>
       <c r="K23" t="n">
         <v>312.3132572469063</v>
@@ -36367,16 +36367,16 @@
         <v>493.4899060528384</v>
       </c>
       <c r="N23" t="n">
-        <v>479.9894034138807</v>
+        <v>203.5850569425869</v>
       </c>
       <c r="O23" t="n">
-        <v>400.4696864621447</v>
+        <v>400.4696864621448</v>
       </c>
       <c r="P23" t="n">
-        <v>306.7655448328033</v>
+        <v>309.3093295138568</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>154.5975424114433</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>564.2665273323265</v>
       </c>
       <c r="N24" t="n">
-        <v>41.76534055570043</v>
+        <v>41.76534055570365</v>
       </c>
       <c r="O24" t="n">
         <v>465.9622969183945</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>62.51894553366536</v>
+        <v>62.51894553366537</v>
       </c>
       <c r="L25" t="n">
         <v>138.1898859695868</v>
@@ -36531,7 +36531,7 @@
         <v>134.2226340610371</v>
       </c>
       <c r="P25" t="n">
-        <v>93.35148346982739</v>
+        <v>93.3514834698274</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>119.2630193788006</v>
       </c>
       <c r="K26" t="n">
-        <v>407.0180515107493</v>
+        <v>414.6189685347514</v>
       </c>
       <c r="L26" t="n">
-        <v>540.2326779735275</v>
+        <v>540.2326779735274</v>
       </c>
       <c r="M26" t="n">
-        <v>595.7956173406835</v>
+        <v>595.7956173406834</v>
       </c>
       <c r="N26" t="n">
-        <v>582.2951147017259</v>
+        <v>574.6941976777258</v>
       </c>
       <c r="O26" t="n">
-        <v>502.7753977499899</v>
+        <v>502.7753977499898</v>
       </c>
       <c r="P26" t="n">
-        <v>411.615040801702</v>
+        <v>411.6150408017019</v>
       </c>
       <c r="Q26" t="n">
-        <v>256.9032536992884</v>
+        <v>256.9032536992883</v>
       </c>
       <c r="R26" t="n">
-        <v>47.01665319983601</v>
+        <v>47.01665319983594</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>88.58002195866831</v>
+        <v>88.58002195866828</v>
       </c>
       <c r="K27" t="n">
         <v>279.181829977854</v>
@@ -36680,19 +36680,19 @@
         <v>433.216116875607</v>
       </c>
       <c r="M27" t="n">
-        <v>564.2665273323266</v>
+        <v>564.2665273323265</v>
       </c>
       <c r="N27" t="n">
-        <v>592.7311883412048</v>
+        <v>116.0302904561413</v>
       </c>
       <c r="O27" t="n">
         <v>465.9622969183945</v>
       </c>
       <c r="P27" t="n">
-        <v>81.28173319064169</v>
+        <v>361.1686331508556</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>196.8139979248497</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.23795554859208</v>
+        <v>60.23795554859203</v>
       </c>
       <c r="K28" t="n">
-        <v>164.8246568215105</v>
+        <v>164.8246568215104</v>
       </c>
       <c r="L28" t="n">
-        <v>240.4955972574319</v>
+        <v>240.4955972574318</v>
       </c>
       <c r="M28" t="n">
-        <v>260.0453956975514</v>
+        <v>260.0453956975513</v>
       </c>
       <c r="N28" t="n">
-        <v>259.5618273246465</v>
+        <v>259.5618273246464</v>
       </c>
       <c r="O28" t="n">
-        <v>236.5283453488822</v>
+        <v>236.5283453488821</v>
       </c>
       <c r="P28" t="n">
         <v>195.6571947576725</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.74899271254577</v>
+        <v>84.74899271254571</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>221.5687306666457</v>
       </c>
       <c r="K29" t="n">
-        <v>407.0180515107492</v>
+        <v>414.6189685347514</v>
       </c>
       <c r="L29" t="n">
-        <v>437.9269666856824</v>
+        <v>540.2326779735275</v>
       </c>
       <c r="M29" t="n">
-        <v>595.7956173406835</v>
+        <v>493.4899060528385</v>
       </c>
       <c r="N29" t="n">
         <v>582.2951147017259</v>
@@ -36847,7 +36847,7 @@
         <v>502.7753977499899</v>
       </c>
       <c r="P29" t="n">
-        <v>411.615040801702</v>
+        <v>404.0141237777022</v>
       </c>
       <c r="Q29" t="n">
         <v>256.9032536992884</v>
@@ -36920,7 +36920,7 @@
         <v>564.2665273323266</v>
       </c>
       <c r="N30" t="n">
-        <v>116.0302904561409</v>
+        <v>116.0302904561406</v>
       </c>
       <c r="O30" t="n">
         <v>465.9622969183945</v>
@@ -37005,7 +37005,7 @@
         <v>236.5283453488822</v>
       </c>
       <c r="P31" t="n">
-        <v>195.6571947576721</v>
+        <v>195.6571947576725</v>
       </c>
       <c r="Q31" t="n">
         <v>84.74899271254577</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>221.5687306666457</v>
+        <v>221.5687306666456</v>
       </c>
       <c r="K32" t="n">
-        <v>407.0180515107519</v>
+        <v>414.6189685347514</v>
       </c>
       <c r="L32" t="n">
-        <v>437.9269666856824</v>
+        <v>540.2326779735274</v>
       </c>
       <c r="M32" t="n">
-        <v>595.7956173406835</v>
+        <v>493.4899060528384</v>
       </c>
       <c r="N32" t="n">
-        <v>582.2951147017259</v>
+        <v>582.2951147017258</v>
       </c>
       <c r="O32" t="n">
-        <v>502.7753977499899</v>
+        <v>495.1744807259903</v>
       </c>
       <c r="P32" t="n">
-        <v>411.615040801702</v>
+        <v>411.6150408017019</v>
       </c>
       <c r="Q32" t="n">
         <v>256.9032536992884</v>
       </c>
       <c r="R32" t="n">
-        <v>47.01665319983599</v>
+        <v>47.01665319983595</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>279.181829977854</v>
       </c>
       <c r="L33" t="n">
         <v>433.216116875607</v>
       </c>
       <c r="M33" t="n">
-        <v>564.2665273323266</v>
+        <v>564.2665273323265</v>
       </c>
       <c r="N33" t="n">
-        <v>592.7311883412048</v>
+        <v>204.6103124148095</v>
       </c>
       <c r="O33" t="n">
         <v>465.9622969183945</v>
@@ -37166,7 +37166,7 @@
         <v>361.1686331508556</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.87495197630832</v>
+        <v>196.8139979248497</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.23795554859207</v>
+        <v>60.23795554859204</v>
       </c>
       <c r="K34" t="n">
-        <v>164.8246568215105</v>
+        <v>164.8246568215104</v>
       </c>
       <c r="L34" t="n">
         <v>240.4955972574319</v>
       </c>
       <c r="M34" t="n">
-        <v>260.0453956975514</v>
+        <v>260.0453956975513</v>
       </c>
       <c r="N34" t="n">
-        <v>259.5618273246465</v>
+        <v>259.5618273246464</v>
       </c>
       <c r="O34" t="n">
-        <v>236.5283453488822</v>
+        <v>236.5283453488825</v>
       </c>
       <c r="P34" t="n">
         <v>195.6571947576725</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.74899271254577</v>
+        <v>84.74899271254573</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>119.2630193788005</v>
       </c>
       <c r="K35" t="n">
         <v>312.3132572469063</v>
@@ -37312,19 +37312,19 @@
         <v>437.9269666856824</v>
       </c>
       <c r="M35" t="n">
-        <v>493.4899060528385</v>
+        <v>493.4899060528384</v>
       </c>
       <c r="N35" t="n">
-        <v>479.9894034138808</v>
+        <v>479.9894034138807</v>
       </c>
       <c r="O35" t="n">
-        <v>400.4696864621448</v>
+        <v>352.9278323027323</v>
       </c>
       <c r="P35" t="n">
-        <v>309.3093295138569</v>
+        <v>309.3093295138568</v>
       </c>
       <c r="Q35" t="n">
-        <v>71.72116521938788</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>88.58002195866828</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>279.181829977854</v>
       </c>
       <c r="L36" t="n">
         <v>433.216116875607</v>
       </c>
       <c r="M36" t="n">
-        <v>564.2665273323266</v>
+        <v>564.2665273323265</v>
       </c>
       <c r="N36" t="n">
-        <v>592.7311883412048</v>
+        <v>592.7311883412046</v>
       </c>
       <c r="O36" t="n">
         <v>465.9622969183945</v>
       </c>
       <c r="P36" t="n">
-        <v>361.1686331508556</v>
+        <v>81.28173319064261</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.87495197630878</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>62.51894553366539</v>
+        <v>62.51894553366536</v>
       </c>
       <c r="L37" t="n">
         <v>138.1898859695868</v>
@@ -37473,13 +37473,13 @@
         <v>157.7396844097063</v>
       </c>
       <c r="N37" t="n">
-        <v>157.2561160368014</v>
+        <v>157.2561160368013</v>
       </c>
       <c r="O37" t="n">
         <v>134.2226340610371</v>
       </c>
       <c r="P37" t="n">
-        <v>93.35148346982741</v>
+        <v>93.35148346982739</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,25 +37540,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>119.2630193788005</v>
       </c>
       <c r="K38" t="n">
-        <v>229.4368800548509</v>
+        <v>312.3132572469063</v>
       </c>
       <c r="L38" t="n">
         <v>437.9269666856824</v>
       </c>
       <c r="M38" t="n">
-        <v>493.4899060528385</v>
+        <v>291.3505094819828</v>
       </c>
       <c r="N38" t="n">
-        <v>479.9894034138808</v>
+        <v>479.9894034138807</v>
       </c>
       <c r="O38" t="n">
-        <v>400.4696864621448</v>
+        <v>400.4696864621447</v>
       </c>
       <c r="P38" t="n">
-        <v>309.3093295138569</v>
+        <v>309.3093295138568</v>
       </c>
       <c r="Q38" t="n">
         <v>154.5975424114433</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>88.58002195866831</v>
+        <v>88.58002195866828</v>
       </c>
       <c r="K39" t="n">
         <v>279.181829977854</v>
       </c>
       <c r="L39" t="n">
-        <v>433.216116875607</v>
+        <v>422.4775159089389</v>
       </c>
       <c r="M39" t="n">
-        <v>564.2665273323266</v>
+        <v>564.2665273323265</v>
       </c>
       <c r="N39" t="n">
-        <v>116.0302904561409</v>
+        <v>592.7311883412046</v>
       </c>
       <c r="O39" t="n">
-        <v>465.9622969183945</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>361.1686331508556</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>62.51894553366539</v>
+        <v>62.51894553366536</v>
       </c>
       <c r="L40" t="n">
         <v>138.1898859695868</v>
@@ -37710,13 +37710,13 @@
         <v>157.7396844097063</v>
       </c>
       <c r="N40" t="n">
-        <v>157.2561160368014</v>
+        <v>157.2561160368013</v>
       </c>
       <c r="O40" t="n">
         <v>134.2226340610371</v>
       </c>
       <c r="P40" t="n">
-        <v>93.35148346982741</v>
+        <v>93.35148346982739</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>119.2630193788005</v>
       </c>
       <c r="K41" t="n">
         <v>312.3132572469063</v>
       </c>
       <c r="L41" t="n">
-        <v>437.9269666856824</v>
+        <v>390.3851125262702</v>
       </c>
       <c r="M41" t="n">
-        <v>493.4899060528385</v>
+        <v>493.4899060528384</v>
       </c>
       <c r="N41" t="n">
-        <v>479.9894034138808</v>
+        <v>479.9894034138807</v>
       </c>
       <c r="O41" t="n">
-        <v>400.4696864621448</v>
+        <v>400.4696864621447</v>
       </c>
       <c r="P41" t="n">
-        <v>309.3093295138569</v>
+        <v>309.3093295138568</v>
       </c>
       <c r="Q41" t="n">
-        <v>71.72116521938788</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>45.09524094921143</v>
+        <v>88.58002195866828</v>
       </c>
       <c r="K42" t="n">
         <v>279.181829977854</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>422.4775159089384</v>
       </c>
       <c r="M42" t="n">
-        <v>564.2665273323266</v>
+        <v>564.2665273323265</v>
       </c>
       <c r="N42" t="n">
-        <v>592.7311883412048</v>
+        <v>592.7311883412046</v>
       </c>
       <c r="O42" t="n">
-        <v>465.9622969183945</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>361.1686331508556</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>62.51894553366539</v>
+        <v>62.51894553366536</v>
       </c>
       <c r="L43" t="n">
         <v>138.1898859695868</v>
@@ -37947,19 +37947,19 @@
         <v>157.7396844097063</v>
       </c>
       <c r="N43" t="n">
-        <v>157.2561160368014</v>
+        <v>157.2561160368013</v>
       </c>
       <c r="O43" t="n">
         <v>134.2226340610371</v>
       </c>
       <c r="P43" t="n">
-        <v>93.35148346982741</v>
+        <v>93.35148346982739</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.158487626395544</v>
+        <v>9.158487626394971</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>71.72116521938784</v>
+        <v>119.2630193788005</v>
       </c>
       <c r="K44" t="n">
         <v>312.3132572469063</v>
@@ -38023,19 +38023,19 @@
         <v>437.9269666856824</v>
       </c>
       <c r="M44" t="n">
-        <v>493.4899060528385</v>
+        <v>493.4899060528384</v>
       </c>
       <c r="N44" t="n">
-        <v>479.9894034138808</v>
+        <v>277.8500068430251</v>
       </c>
       <c r="O44" t="n">
-        <v>400.4696864621448</v>
+        <v>400.4696864621447</v>
       </c>
       <c r="P44" t="n">
-        <v>309.3093295138569</v>
+        <v>309.3093295138568</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>154.5975424114433</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>88.58002195866831</v>
+        <v>45.09524094921218</v>
       </c>
       <c r="K45" t="n">
         <v>279.181829977854</v>
@@ -38102,10 +38102,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>564.2665273323266</v>
+        <v>564.2665273323265</v>
       </c>
       <c r="N45" t="n">
-        <v>592.7311883412048</v>
+        <v>592.7311883412046</v>
       </c>
       <c r="O45" t="n">
         <v>465.9622969183945</v>
@@ -38114,7 +38114,7 @@
         <v>361.1686331508556</v>
       </c>
       <c r="Q45" t="n">
-        <v>153.3292169153934</v>
+        <v>196.8139979248497</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>62.51894553366539</v>
+        <v>71.67743316006079</v>
       </c>
       <c r="L46" t="n">
         <v>138.1898859695868</v>
@@ -38184,19 +38184,19 @@
         <v>157.7396844097063</v>
       </c>
       <c r="N46" t="n">
-        <v>157.2561160368014</v>
+        <v>157.2561160368013</v>
       </c>
       <c r="O46" t="n">
         <v>134.2226340610371</v>
       </c>
       <c r="P46" t="n">
-        <v>93.35148346982741</v>
+        <v>93.35148346982739</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.158487626395544</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
